--- a/Ievades_dati/EGV/EGVsaraksts_bites.xlsx
+++ b/Ievades_dati/EGV/EGVsaraksts_bites.xlsx
@@ -5,18 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Documents\Bee_SDM\Ievades_dati\EGV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Documents\Bee_SDM\Bee_SDM\Ievades_dati\Noverojumi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211FFD2F-70E0-4AF8-893A-3C2F613D07E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F9471A-D1F9-4EA6-A191-C4A4B215ACE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="108" yWindow="24" windowWidth="22932" windowHeight="12936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EGV" sheetId="1" r:id="rId1"/>
-    <sheet name="ESRI_MAPINFO_SHEET" sheetId="2" state="veryHidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="1491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="1379">
   <si>
     <t>scale_NAME</t>
   </si>
@@ -4119,6 +4118,27 @@
     <t>https://drive.usercontent.google.com/u/0/uc?id=1jhK-TxSm5bpW4lebcPBmQE2WfkJu3bGf&amp;export=download</t>
   </si>
   <si>
+    <t>Bulk density in the 0 -10 cm layer</t>
+  </si>
+  <si>
+    <t>Coarse fragments</t>
+  </si>
+  <si>
+    <t>Soil calcium carbonate</t>
+  </si>
+  <si>
+    <t>Īscirtmeta atvasāji + krūmāji un jaunas mežaudzes</t>
+  </si>
+  <si>
+    <t>Aramzemes (visas) + kultivētie zālāji + papuves īpatsvars analīzes šūnā</t>
+  </si>
+  <si>
+    <t>Aramzemes (visas) + kultivētie zālāji + papuves īpatsvars r=500 m ap analīzes šūnas centru</t>
+  </si>
+  <si>
+    <t>Aramzemes (visas) + kultivētie zālāji + papuves īpatsvars r=1250 m ap analīzes šūnas centru</t>
+  </si>
+  <si>
     <t>Soils_BulkDensity010</t>
   </si>
   <si>
@@ -4156,363 +4176,6 @@
   </si>
   <si>
     <t>Lauku_AramzKultivzPapuves_r1250.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eiropas vienotā pētījumu centra (JRC) iztrādātā augsnes modeļa parametra "augsnes blīvums līdz 10 cm dziļumā" vidējā vērtība analīzes šūnā </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eiropas vienotā pētījumu centra (JRC) iztrādātā augsnes modeļa parametra "liela izmēra augsnes fragmenti" vidējā vērtība analīzes šūnā </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eiropas vienotā pētījumu centra (JRC) iztrādātā augsnes modeļa parametra "kalcija karbonāts" vidējā vērtība analīzes šūnā </t>
-  </si>
-  <si>
-    <t>Aramzemju (visu), kultivēto zālāju un papuvju īpatsvars analīzes šūnā</t>
-  </si>
-  <si>
-    <t>Aramzemju (visu), kultivēto zālāju un papuvju īpatsvars  r=500 m ap analīzes šūnas centru</t>
-  </si>
-  <si>
-    <t>Aramzemju (visu), kultivēto zālāju un papuvju īpatsvars  r=1250 m ap analīzes šūnas centru</t>
-  </si>
-  <si>
-    <t>Īscirtmeta atvasāju, krūmāju un jaunu mežaudžu īpatsvars r=500 m ap analīzes šūnas centru</t>
-  </si>
-  <si>
-    <t>Īscirtmeta atvasāju, krūmāju un jaunu mežaudžu īpatsvars r=1250 ap analīzes šūnas centru</t>
-  </si>
-  <si>
-    <t>Ainava_Apbuve</t>
-  </si>
-  <si>
-    <t>Ainava_Koki</t>
-  </si>
-  <si>
-    <t>Ainava_MeziNetaksets</t>
-  </si>
-  <si>
-    <t>Ainava_Mitraji</t>
-  </si>
-  <si>
-    <t>Ainava_NiedrajiBebraines</t>
-  </si>
-  <si>
-    <t>Ainava_ParkiKapiAlejas</t>
-  </si>
-  <si>
-    <t>Ainava_SmiltajiKudra</t>
-  </si>
-  <si>
-    <t>Ainava_Udeni</t>
-  </si>
-  <si>
-    <t>Ainava_Vasarnicas</t>
-  </si>
-  <si>
-    <t>Climate_FebPrec</t>
-  </si>
-  <si>
-    <t>Climate_FebTempSum</t>
-  </si>
-  <si>
-    <t>Climate_JulPrec</t>
-  </si>
-  <si>
-    <t>Climate_PosTempDays</t>
-  </si>
-  <si>
-    <t>Climate_VegTempSums</t>
-  </si>
-  <si>
-    <t>Climate_YearPrecSum</t>
-  </si>
-  <si>
-    <t>Daudzv_Kopeja</t>
-  </si>
-  <si>
-    <t>Daudzv_Lauku</t>
-  </si>
-  <si>
-    <t>Daudzv_Mezu</t>
-  </si>
-  <si>
-    <t>Dist_Apbuve-vid</t>
-  </si>
-  <si>
-    <t>Dist_Atkritumi-vid</t>
-  </si>
-  <si>
-    <t>Dist_AtkritumuPoligoni-vid</t>
-  </si>
-  <si>
-    <t>Dist_DzilumsMezos-vid</t>
-  </si>
-  <si>
-    <t>Dist_Jura-vid</t>
-  </si>
-  <si>
-    <t>Dist_Udeni-vid</t>
-  </si>
-  <si>
-    <t>Dist_ZalajiIlggadigie-vid</t>
-  </si>
-  <si>
-    <t>EO_NDVI-LYmed-iqr</t>
-  </si>
-  <si>
-    <t>EO_NDVI-LYmed-vid</t>
-  </si>
-  <si>
-    <t>EO_NDVI-STiqr-med</t>
-  </si>
-  <si>
-    <t>EO_NDVI-STmed-iqr</t>
-  </si>
-  <si>
-    <t>EO_NDVI-STmed-vid</t>
-  </si>
-  <si>
-    <t>EO_NDVI-STp25-min</t>
-  </si>
-  <si>
-    <t>EO_NDVI-STp75-max</t>
-  </si>
-  <si>
-    <t>EO_NDWI-LYmed-iqr</t>
-  </si>
-  <si>
-    <t>EO_NDWI-LYmed-vid</t>
-  </si>
-  <si>
-    <t>EO_NDWI-STiqr-med</t>
-  </si>
-  <si>
-    <t>EO_NDWI-STmed-vid</t>
-  </si>
-  <si>
-    <t>EO_NDWI-STp25-min</t>
-  </si>
-  <si>
-    <t>EO_NDWI-STp75-max</t>
-  </si>
-  <si>
-    <t>Lauku_AramLabibaVasaraji</t>
-  </si>
-  <si>
-    <t>Lauku_AramLabibaZiemaji</t>
-  </si>
-  <si>
-    <t>Lauku_AramParejas</t>
-  </si>
-  <si>
-    <t>Lauku_AramVaguRusinamas</t>
-  </si>
-  <si>
-    <t>Lauku_AramVasarasRapsiUTML</t>
-  </si>
-  <si>
-    <t>Lauku_AramVisas</t>
-  </si>
-  <si>
-    <t>Lauku_AramZiemasRapsi</t>
-  </si>
-  <si>
-    <t>Lauku_AugludarziLAD</t>
-  </si>
-  <si>
-    <t>Lauku_Bloki</t>
-  </si>
-  <si>
-    <t>Lauku_KrumiLAD</t>
-  </si>
-  <si>
-    <t>Lauku_Papuves</t>
-  </si>
-  <si>
-    <t>Lauku_ZalajiBezatbNELAD</t>
-  </si>
-  <si>
-    <t>Lauku_ZalajiIlggadigie</t>
-  </si>
-  <si>
-    <t>Lauku_ZalajiKultivetie</t>
-  </si>
-  <si>
-    <t>Lauku_ZalajiVisi</t>
-  </si>
-  <si>
-    <t>Malas_Apbuve-Koki</t>
-  </si>
-  <si>
-    <t>Malas_Apbuve-LIZ</t>
-  </si>
-  <si>
-    <t>Malas_AramzemesY</t>
-  </si>
-  <si>
-    <t>Malas_Celi</t>
-  </si>
-  <si>
-    <t>Malas_KokiY</t>
-  </si>
-  <si>
-    <t>Malas_LIZzemieKoki-Koki</t>
-  </si>
-  <si>
-    <t>Malas_NiedrajiBebraines-Udens</t>
-  </si>
-  <si>
-    <t>Malas_PieaugParaugY</t>
-  </si>
-  <si>
-    <t>Malas_Udens-LIZ</t>
-  </si>
-  <si>
-    <t>Malas_Udens-Zalaji</t>
-  </si>
-  <si>
-    <t>Malas_UdensY</t>
-  </si>
-  <si>
-    <t>Malas_ZalajiY</t>
-  </si>
-  <si>
-    <t>Mezi_ApsuKraja-sum</t>
-  </si>
-  <si>
-    <t>Mezi_BerzuKraja-sum</t>
-  </si>
-  <si>
-    <t>Mezi_EgluKraja-sum</t>
-  </si>
-  <si>
-    <t>Mezi_EitrPurv</t>
-  </si>
-  <si>
-    <t>Mezi_EitrSaus</t>
-  </si>
-  <si>
-    <t>Mezi_EitrSus</t>
-  </si>
-  <si>
-    <t>Mezi_IzcUNzem5m</t>
-  </si>
-  <si>
-    <t>Mezi_Jauktukoku</t>
-  </si>
-  <si>
-    <t>Mezi_JauktukokuJaunas</t>
-  </si>
-  <si>
-    <t>Mezi_JauktukokuVecas</t>
-  </si>
-  <si>
-    <t>Mezi_Jaunaudzes5mKrumaji</t>
-  </si>
-  <si>
-    <t>Mezi_KopejaKraja-sum</t>
-  </si>
-  <si>
-    <t>Mezi_LielakaisDiametrs-max</t>
-  </si>
-  <si>
-    <t>Mezi_MelnalksnuKraja-sum</t>
-  </si>
-  <si>
-    <t>Mezi_MezoSaus</t>
-  </si>
-  <si>
-    <t>Mezi_NogabalaVecumaProp-vid</t>
-  </si>
-  <si>
-    <t>Mezi_OligoPurv</t>
-  </si>
-  <si>
-    <t>Mezi_OligoSaus</t>
-  </si>
-  <si>
-    <t>Mezi_OligoSus</t>
-  </si>
-  <si>
-    <t>Mezi_PieaugParaug</t>
-  </si>
-  <si>
-    <t>Mezi_Platlapju</t>
-  </si>
-  <si>
-    <t>Mezi_PlatlapjuJaunas</t>
-  </si>
-  <si>
-    <t>Mezi_PlatlapjuKraja-sum</t>
-  </si>
-  <si>
-    <t>Mezi_PlatlapjuVecas</t>
-  </si>
-  <si>
-    <t>Mezi_PriezuKraja-sum</t>
-  </si>
-  <si>
-    <t>Mezi_Saurlapju</t>
-  </si>
-  <si>
-    <t>Mezi_SaurlapjuCKraja-sum</t>
-  </si>
-  <si>
-    <t>Mezi_SaurlapjuJaunas</t>
-  </si>
-  <si>
-    <t>Mezi_SaurlapjuVecas</t>
-  </si>
-  <si>
-    <t>Mezi_SaurlapjuVKraja-sum</t>
-  </si>
-  <si>
-    <t>Mezi_Skujkoku</t>
-  </si>
-  <si>
-    <t>Mezi_SkujkokuJaunas</t>
-  </si>
-  <si>
-    <t>Mezi_SkujkokuKraja-sum</t>
-  </si>
-  <si>
-    <t>Mezi_SkujkokuVecas</t>
-  </si>
-  <si>
-    <t>Mezi_TaucLaiks-vid</t>
-  </si>
-  <si>
-    <t>Mezi_ValdosaisDiametrs-max</t>
-  </si>
-  <si>
-    <t>Mezi_VidejasBriestaudzes</t>
-  </si>
-  <si>
-    <t>Reljefs_Aspect-iqr</t>
-  </si>
-  <si>
-    <t>Reljefs_Aspect-mean</t>
-  </si>
-  <si>
-    <t>Reljefs_DiS-area</t>
-  </si>
-  <si>
-    <t>Reljefs_DiS-max</t>
-  </si>
-  <si>
-    <t>Reljefs_DiS-mean</t>
-  </si>
-  <si>
-    <t>Reljefs_Slope-iqr</t>
-  </si>
-  <si>
-    <t>Reljefs_Slope-mean</t>
-  </si>
-  <si>
-    <t>Reljefs_TWI-mean</t>
-  </si>
-  <si>
-    <t>Soils_OrganicCarbon</t>
   </si>
 </sst>
 </file>
@@ -4553,7 +4216,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4593,106 +4256,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>294147</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>126965</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="EsriDoNotEdit">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D95554E3-1127-4176-8614-5F84851FEF8B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="6390147" cy="1650965"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="5000" b="1" i="0" cap="none" spc="0">
-              <a:ln w="18000">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="140000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:miter lim="800000"/>
-              </a:ln>
-              <a:noFill/>
-              <a:effectLst>
-                <a:outerShdw blurRad="25500" dist="23000" dir="7020000" algn="tl">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="50000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>DO NOT EDIT </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="5000" b="1" i="0" cap="none" spc="0">
-              <a:ln w="18000">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="140000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:miter lim="800000"/>
-              </a:ln>
-              <a:noFill/>
-              <a:effectLst>
-                <a:outerShdw blurRad="25500" dist="23000" dir="7020000" algn="tl">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="50000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> For Esri use only</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4893,11 +4456,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M947"/>
+  <dimension ref="A1:M948"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D351" sqref="D351"/>
+      <pane ySplit="1" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D335" sqref="D335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4905,9 +4468,9 @@
     <col min="1" max="1" width="34.109375" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="7.5546875" customWidth="1"/>
-    <col min="4" max="4" width="125" customWidth="1"/>
+    <col min="4" max="4" width="116.44140625" customWidth="1"/>
     <col min="5" max="5" width="62.44140625" customWidth="1"/>
-    <col min="6" max="6" width="99.33203125" customWidth="1"/>
+    <col min="6" max="6" width="99.21875" customWidth="1"/>
     <col min="7" max="13" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4941,8 +4504,9 @@
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1380</v>
+      <c r="B2" s="3" t="str">
+        <f>_xlfn.TEXTBEFORE(A2,"_",2)</f>
+        <v>Ainava_Apbuve</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -4963,8 +4527,9 @@
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>1380</v>
+      <c r="B3" s="3" t="str">
+        <f t="shared" ref="B3:B66" si="0">_xlfn.TEXTBEFORE(A3,"_",2)</f>
+        <v>Ainava_Apbuve</v>
       </c>
       <c r="C3" s="3">
         <v>500</v>
@@ -4985,8 +4550,9 @@
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>1380</v>
+      <c r="B4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_Apbuve</v>
       </c>
       <c r="C4" s="3">
         <v>1250</v>
@@ -5007,8 +4573,9 @@
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>1380</v>
+      <c r="B5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_Apbuve</v>
       </c>
       <c r="C5" s="3">
         <v>3000</v>
@@ -5029,8 +4596,9 @@
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>1380</v>
+      <c r="B6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_Apbuve</v>
       </c>
       <c r="C6" s="3">
         <v>10000</v>
@@ -5051,8 +4619,9 @@
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>1381</v>
+      <c r="B7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_Koki</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -5077,8 +4646,9 @@
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>1381</v>
+      <c r="B8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_Koki</v>
       </c>
       <c r="C8" s="3">
         <v>500</v>
@@ -5103,8 +4673,9 @@
       <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>1381</v>
+      <c r="B9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_Koki</v>
       </c>
       <c r="C9" s="3">
         <v>1250</v>
@@ -5129,8 +4700,9 @@
       <c r="A10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>1381</v>
+      <c r="B10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_Koki</v>
       </c>
       <c r="C10" s="3">
         <v>3000</v>
@@ -5150,8 +4722,9 @@
       <c r="A11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>1381</v>
+      <c r="B11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_Koki</v>
       </c>
       <c r="C11" s="3">
         <v>10000</v>
@@ -5171,8 +4744,9 @@
       <c r="A12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>1382</v>
+      <c r="B12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_MeziNetaksets</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -5193,8 +4767,9 @@
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>1382</v>
+      <c r="B13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_MeziNetaksets</v>
       </c>
       <c r="C13" s="3">
         <v>500</v>
@@ -5215,8 +4790,9 @@
       <c r="A14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>1382</v>
+      <c r="B14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_MeziNetaksets</v>
       </c>
       <c r="C14" s="3">
         <v>1250</v>
@@ -5237,8 +4813,9 @@
       <c r="A15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>1382</v>
+      <c r="B15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_MeziNetaksets</v>
       </c>
       <c r="C15" s="3">
         <v>3000</v>
@@ -5259,8 +4836,9 @@
       <c r="A16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>1382</v>
+      <c r="B16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_MeziNetaksets</v>
       </c>
       <c r="C16" s="3">
         <v>10000</v>
@@ -5281,8 +4859,9 @@
       <c r="A17" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>1383</v>
+      <c r="B17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_Mitraji</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -5303,8 +4882,9 @@
       <c r="A18" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>1383</v>
+      <c r="B18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_Mitraji</v>
       </c>
       <c r="C18" s="3">
         <v>500</v>
@@ -5325,8 +4905,9 @@
       <c r="A19" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>1383</v>
+      <c r="B19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_Mitraji</v>
       </c>
       <c r="C19" s="3">
         <v>1250</v>
@@ -5347,8 +4928,9 @@
       <c r="A20" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>1383</v>
+      <c r="B20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_Mitraji</v>
       </c>
       <c r="C20" s="3">
         <v>3000</v>
@@ -5369,8 +4951,9 @@
       <c r="A21" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>1383</v>
+      <c r="B21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_Mitraji</v>
       </c>
       <c r="C21" s="3">
         <v>10000</v>
@@ -5391,8 +4974,9 @@
       <c r="A22" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>1384</v>
+      <c r="B22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_NiedrajiBebraines</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
@@ -5413,8 +4997,9 @@
       <c r="A23" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>1384</v>
+      <c r="B23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_NiedrajiBebraines</v>
       </c>
       <c r="C23" s="3">
         <v>500</v>
@@ -5435,8 +5020,9 @@
       <c r="A24" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>1384</v>
+      <c r="B24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_NiedrajiBebraines</v>
       </c>
       <c r="C24" s="3">
         <v>1250</v>
@@ -5457,8 +5043,9 @@
       <c r="A25" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>1384</v>
+      <c r="B25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_NiedrajiBebraines</v>
       </c>
       <c r="C25" s="3">
         <v>3000</v>
@@ -5479,8 +5066,9 @@
       <c r="A26" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>1384</v>
+      <c r="B26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_NiedrajiBebraines</v>
       </c>
       <c r="C26" s="3">
         <v>10000</v>
@@ -5501,8 +5089,9 @@
       <c r="A27" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>1385</v>
+      <c r="B27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_ParkiKapiAlejas</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
@@ -5523,8 +5112,9 @@
       <c r="A28" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>1385</v>
+      <c r="B28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_ParkiKapiAlejas</v>
       </c>
       <c r="C28" s="3">
         <v>500</v>
@@ -5545,8 +5135,9 @@
       <c r="A29" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>1385</v>
+      <c r="B29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_ParkiKapiAlejas</v>
       </c>
       <c r="C29" s="3">
         <v>1250</v>
@@ -5567,8 +5158,9 @@
       <c r="A30" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>1385</v>
+      <c r="B30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_ParkiKapiAlejas</v>
       </c>
       <c r="C30" s="3">
         <v>3000</v>
@@ -5589,8 +5181,9 @@
       <c r="A31" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>1386</v>
+      <c r="B31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_SmiltajiKudra</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
@@ -5615,8 +5208,9 @@
       <c r="A32" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>1386</v>
+      <c r="B32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_SmiltajiKudra</v>
       </c>
       <c r="C32" s="3">
         <v>500</v>
@@ -5641,8 +5235,9 @@
       <c r="A33" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>1386</v>
+      <c r="B33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_SmiltajiKudra</v>
       </c>
       <c r="C33" s="3">
         <v>1250</v>
@@ -5667,8 +5262,9 @@
       <c r="A34" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>1386</v>
+      <c r="B34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_SmiltajiKudra</v>
       </c>
       <c r="C34" s="3">
         <v>3000</v>
@@ -5689,8 +5285,9 @@
       <c r="A35" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>1386</v>
+      <c r="B35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_SmiltajiKudra</v>
       </c>
       <c r="C35" s="3">
         <v>10000</v>
@@ -5711,8 +5308,9 @@
       <c r="A36" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>1387</v>
+      <c r="B36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_Udeni</v>
       </c>
       <c r="C36" s="3">
         <v>0</v>
@@ -5737,8 +5335,9 @@
       <c r="A37" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>1387</v>
+      <c r="B37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_Udeni</v>
       </c>
       <c r="C37" s="3">
         <v>500</v>
@@ -5763,8 +5362,9 @@
       <c r="A38" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>1387</v>
+      <c r="B38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_Udeni</v>
       </c>
       <c r="C38" s="3">
         <v>1250</v>
@@ -5789,8 +5389,9 @@
       <c r="A39" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>1387</v>
+      <c r="B39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_Udeni</v>
       </c>
       <c r="C39" s="3">
         <v>3000</v>
@@ -5811,8 +5412,9 @@
       <c r="A40" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>1387</v>
+      <c r="B40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_Udeni</v>
       </c>
       <c r="C40" s="3">
         <v>10000</v>
@@ -5833,8 +5435,9 @@
       <c r="A41" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>1388</v>
+      <c r="B41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_Vasarnicas</v>
       </c>
       <c r="C41" s="3">
         <v>0</v>
@@ -5859,8 +5462,9 @@
       <c r="A42" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>1388</v>
+      <c r="B42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_Vasarnicas</v>
       </c>
       <c r="C42" s="3">
         <v>500</v>
@@ -5885,8 +5489,9 @@
       <c r="A43" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>1388</v>
+      <c r="B43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_Vasarnicas</v>
       </c>
       <c r="C43" s="3">
         <v>1250</v>
@@ -5911,8 +5516,9 @@
       <c r="A44" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>1388</v>
+      <c r="B44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_Vasarnicas</v>
       </c>
       <c r="C44" s="3">
         <v>3000</v>
@@ -5933,8 +5539,9 @@
       <c r="A45" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>1388</v>
+      <c r="B45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ainava_Vasarnicas</v>
       </c>
       <c r="C45" s="3">
         <v>10000</v>
@@ -5955,8 +5562,9 @@
       <c r="A46" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>1389</v>
+      <c r="B46" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Climate_FebPrec</v>
       </c>
       <c r="C46" s="3">
         <v>0</v>
@@ -5981,8 +5589,9 @@
       <c r="A47" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>1390</v>
+      <c r="B47" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Climate_FebTempSum</v>
       </c>
       <c r="C47" s="3">
         <v>0</v>
@@ -6007,8 +5616,9 @@
       <c r="A48" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>1391</v>
+      <c r="B48" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Climate_JulPrec</v>
       </c>
       <c r="C48" s="3">
         <v>0</v>
@@ -6033,8 +5643,9 @@
       <c r="A49" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>1392</v>
+      <c r="B49" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Climate_PosTempDays</v>
       </c>
       <c r="C49" s="3">
         <v>0</v>
@@ -6059,8 +5670,9 @@
       <c r="A50" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>1393</v>
+      <c r="B50" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Climate_VegTempSums</v>
       </c>
       <c r="C50" s="3">
         <v>0</v>
@@ -6085,8 +5697,9 @@
       <c r="A51" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>1394</v>
+      <c r="B51" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Climate_YearPrecSum</v>
       </c>
       <c r="C51" s="3">
         <v>0</v>
@@ -6111,8 +5724,9 @@
       <c r="A52" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>1395</v>
+      <c r="B52" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Daudzv_Kopeja</v>
       </c>
       <c r="C52" s="3">
         <v>500</v>
@@ -6137,8 +5751,9 @@
       <c r="A53" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>1395</v>
+      <c r="B53" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Daudzv_Kopeja</v>
       </c>
       <c r="C53" s="3">
         <v>1250</v>
@@ -6163,8 +5778,9 @@
       <c r="A54" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>1395</v>
+      <c r="B54" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Daudzv_Kopeja</v>
       </c>
       <c r="C54" s="3">
         <v>3000</v>
@@ -6185,8 +5801,9 @@
       <c r="A55" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>1395</v>
+      <c r="B55" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Daudzv_Kopeja</v>
       </c>
       <c r="C55" s="3">
         <v>10000</v>
@@ -6207,8 +5824,9 @@
       <c r="A56" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>1396</v>
+      <c r="B56" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Daudzv_Lauku</v>
       </c>
       <c r="C56" s="3">
         <v>500</v>
@@ -6233,8 +5851,9 @@
       <c r="A57" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>1396</v>
+      <c r="B57" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Daudzv_Lauku</v>
       </c>
       <c r="C57" s="3">
         <v>1250</v>
@@ -6259,8 +5878,9 @@
       <c r="A58" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>1396</v>
+      <c r="B58" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Daudzv_Lauku</v>
       </c>
       <c r="C58" s="3">
         <v>3000</v>
@@ -6281,8 +5901,9 @@
       <c r="A59" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>1396</v>
+      <c r="B59" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Daudzv_Lauku</v>
       </c>
       <c r="C59" s="3">
         <v>10000</v>
@@ -6303,8 +5924,9 @@
       <c r="A60" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>1397</v>
+      <c r="B60" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Daudzv_Mezu</v>
       </c>
       <c r="C60" s="3">
         <v>500</v>
@@ -6325,8 +5947,9 @@
       <c r="A61" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>1397</v>
+      <c r="B61" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Daudzv_Mezu</v>
       </c>
       <c r="C61" s="3">
         <v>1250</v>
@@ -6347,8 +5970,9 @@
       <c r="A62" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>1397</v>
+      <c r="B62" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Daudzv_Mezu</v>
       </c>
       <c r="C62" s="3">
         <v>3000</v>
@@ -6369,8 +5993,9 @@
       <c r="A63" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>1397</v>
+      <c r="B63" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Daudzv_Mezu</v>
       </c>
       <c r="C63" s="3">
         <v>10000</v>
@@ -6391,8 +6016,9 @@
       <c r="A64" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>1398</v>
+      <c r="B64" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Dist_Apbuve-vid</v>
       </c>
       <c r="C64" s="3">
         <v>0</v>
@@ -6413,8 +6039,9 @@
       <c r="A65" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>1399</v>
+      <c r="B65" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Dist_Atkritumi-vid</v>
       </c>
       <c r="C65" s="3">
         <v>0</v>
@@ -6435,8 +6062,9 @@
       <c r="A66" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>1400</v>
+      <c r="B66" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Dist_AtkritumuPoligoni-vid</v>
       </c>
       <c r="C66" s="3">
         <v>0</v>
@@ -6457,8 +6085,9 @@
       <c r="A67" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>1401</v>
+      <c r="B67" s="3" t="str">
+        <f t="shared" ref="B67:B130" si="1">_xlfn.TEXTBEFORE(A67,"_",2)</f>
+        <v>Dist_DzilumsMezos-vid</v>
       </c>
       <c r="C67" s="3">
         <v>0</v>
@@ -6483,8 +6112,9 @@
       <c r="A68" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>1402</v>
+      <c r="B68" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Dist_Jura-vid</v>
       </c>
       <c r="C68" s="3">
         <v>0</v>
@@ -6505,8 +6135,9 @@
       <c r="A69" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>1403</v>
+      <c r="B69" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Dist_Udeni-vid</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
@@ -6527,8 +6158,9 @@
       <c r="A70" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>1404</v>
+      <c r="B70" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Dist_ZalajiIlggadigie-vid</v>
       </c>
       <c r="C70" s="3">
         <v>0</v>
@@ -6553,8 +6185,9 @@
       <c r="A71" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>1405</v>
+      <c r="B71" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>EO_NDVI-LYmed-iqr</v>
       </c>
       <c r="C71" s="3">
         <v>0</v>
@@ -6579,8 +6212,9 @@
       <c r="A72" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>1406</v>
+      <c r="B72" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>EO_NDVI-LYmed-vid</v>
       </c>
       <c r="C72" s="3">
         <v>0</v>
@@ -6605,8 +6239,9 @@
       <c r="A73" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>1407</v>
+      <c r="B73" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>EO_NDVI-STiqr-med</v>
       </c>
       <c r="C73" s="3">
         <v>0</v>
@@ -6631,8 +6266,9 @@
       <c r="A74" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>1408</v>
+      <c r="B74" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>EO_NDVI-STmed-iqr</v>
       </c>
       <c r="C74" s="3">
         <v>0</v>
@@ -6657,8 +6293,9 @@
       <c r="A75" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>1409</v>
+      <c r="B75" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>EO_NDVI-STmed-vid</v>
       </c>
       <c r="C75" s="3">
         <v>0</v>
@@ -6683,8 +6320,9 @@
       <c r="A76" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>1410</v>
+      <c r="B76" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>EO_NDVI-STp25-min</v>
       </c>
       <c r="C76" s="3">
         <v>0</v>
@@ -6709,8 +6347,9 @@
       <c r="A77" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>1411</v>
+      <c r="B77" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>EO_NDVI-STp75-max</v>
       </c>
       <c r="C77" s="3">
         <v>0</v>
@@ -6735,8 +6374,9 @@
       <c r="A78" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>1412</v>
+      <c r="B78" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>EO_NDWI-LYmed-iqr</v>
       </c>
       <c r="C78" s="3">
         <v>0</v>
@@ -6761,8 +6401,9 @@
       <c r="A79" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>1413</v>
+      <c r="B79" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>EO_NDWI-LYmed-vid</v>
       </c>
       <c r="C79" s="3">
         <v>0</v>
@@ -6787,8 +6428,9 @@
       <c r="A80" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>1414</v>
+      <c r="B80" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>EO_NDWI-STiqr-med</v>
       </c>
       <c r="C80" s="3">
         <v>0</v>
@@ -6813,8 +6455,9 @@
       <c r="A81" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>1415</v>
+      <c r="B81" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>EO_NDWI-STmed-vid</v>
       </c>
       <c r="C81" s="3">
         <v>0</v>
@@ -6839,8 +6482,9 @@
       <c r="A82" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>1416</v>
+      <c r="B82" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>EO_NDWI-STp25-min</v>
       </c>
       <c r="C82" s="3">
         <v>0</v>
@@ -6865,8 +6509,9 @@
       <c r="A83" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>1417</v>
+      <c r="B83" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>EO_NDWI-STp75-max</v>
       </c>
       <c r="C83" s="3">
         <v>0</v>
@@ -6891,8 +6536,9 @@
       <c r="A84" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>1418</v>
+      <c r="B84" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramLabibaVasaraji</v>
       </c>
       <c r="C84" s="3">
         <v>0</v>
@@ -6913,8 +6559,9 @@
       <c r="A85" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>1418</v>
+      <c r="B85" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramLabibaVasaraji</v>
       </c>
       <c r="C85" s="3">
         <v>500</v>
@@ -6935,8 +6582,9 @@
       <c r="A86" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>1418</v>
+      <c r="B86" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramLabibaVasaraji</v>
       </c>
       <c r="C86" s="3">
         <v>1250</v>
@@ -6957,8 +6605,9 @@
       <c r="A87" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>1418</v>
+      <c r="B87" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramLabibaVasaraji</v>
       </c>
       <c r="C87" s="3">
         <v>3000</v>
@@ -6979,8 +6628,9 @@
       <c r="A88" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>1418</v>
+      <c r="B88" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramLabibaVasaraji</v>
       </c>
       <c r="C88" s="3">
         <v>10000</v>
@@ -7001,8 +6651,9 @@
       <c r="A89" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>1419</v>
+      <c r="B89" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramLabibaZiemaji</v>
       </c>
       <c r="C89" s="3">
         <v>0</v>
@@ -7023,8 +6674,9 @@
       <c r="A90" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>1419</v>
+      <c r="B90" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramLabibaZiemaji</v>
       </c>
       <c r="C90" s="3">
         <v>500</v>
@@ -7045,8 +6697,9 @@
       <c r="A91" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>1419</v>
+      <c r="B91" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramLabibaZiemaji</v>
       </c>
       <c r="C91" s="3">
         <v>1250</v>
@@ -7067,8 +6720,9 @@
       <c r="A92" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>1419</v>
+      <c r="B92" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramLabibaZiemaji</v>
       </c>
       <c r="C92" s="3">
         <v>3000</v>
@@ -7089,8 +6743,9 @@
       <c r="A93" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>1419</v>
+      <c r="B93" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramLabibaZiemaji</v>
       </c>
       <c r="C93" s="3">
         <v>10000</v>
@@ -7111,8 +6766,9 @@
       <c r="A94" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>1420</v>
+      <c r="B94" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramParejas</v>
       </c>
       <c r="C94" s="3">
         <v>0</v>
@@ -7133,8 +6789,9 @@
       <c r="A95" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>1420</v>
+      <c r="B95" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramParejas</v>
       </c>
       <c r="C95" s="3">
         <v>500</v>
@@ -7155,8 +6812,9 @@
       <c r="A96" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>1420</v>
+      <c r="B96" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramParejas</v>
       </c>
       <c r="C96" s="3">
         <v>1250</v>
@@ -7177,8 +6835,9 @@
       <c r="A97" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>1420</v>
+      <c r="B97" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramParejas</v>
       </c>
       <c r="C97" s="3">
         <v>3000</v>
@@ -7199,8 +6858,9 @@
       <c r="A98" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>1420</v>
+      <c r="B98" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramParejas</v>
       </c>
       <c r="C98" s="3">
         <v>10000</v>
@@ -7221,8 +6881,9 @@
       <c r="A99" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>1421</v>
+      <c r="B99" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramVaguRusinamas</v>
       </c>
       <c r="C99" s="3">
         <v>0</v>
@@ -7243,8 +6904,9 @@
       <c r="A100" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>1421</v>
+      <c r="B100" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramVaguRusinamas</v>
       </c>
       <c r="C100" s="3">
         <v>500</v>
@@ -7265,8 +6927,9 @@
       <c r="A101" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="B101" s="3" t="s">
-        <v>1421</v>
+      <c r="B101" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramVaguRusinamas</v>
       </c>
       <c r="C101" s="3">
         <v>1250</v>
@@ -7287,8 +6950,9 @@
       <c r="A102" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>1421</v>
+      <c r="B102" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramVaguRusinamas</v>
       </c>
       <c r="C102" s="3">
         <v>3000</v>
@@ -7309,8 +6973,9 @@
       <c r="A103" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>1421</v>
+      <c r="B103" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramVaguRusinamas</v>
       </c>
       <c r="C103" s="3">
         <v>10000</v>
@@ -7331,8 +6996,9 @@
       <c r="A104" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>1422</v>
+      <c r="B104" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramVasarasRapsiUTML</v>
       </c>
       <c r="C104" s="3">
         <v>0</v>
@@ -7353,8 +7019,9 @@
       <c r="A105" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>1422</v>
+      <c r="B105" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramVasarasRapsiUTML</v>
       </c>
       <c r="C105" s="3">
         <v>500</v>
@@ -7375,8 +7042,9 @@
       <c r="A106" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>1422</v>
+      <c r="B106" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramVasarasRapsiUTML</v>
       </c>
       <c r="C106" s="3">
         <v>1250</v>
@@ -7397,8 +7065,9 @@
       <c r="A107" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>1422</v>
+      <c r="B107" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramVasarasRapsiUTML</v>
       </c>
       <c r="C107" s="3">
         <v>3000</v>
@@ -7419,8 +7088,9 @@
       <c r="A108" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>1422</v>
+      <c r="B108" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramVasarasRapsiUTML</v>
       </c>
       <c r="C108" s="3">
         <v>10000</v>
@@ -7441,8 +7111,9 @@
       <c r="A109" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>1423</v>
+      <c r="B109" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramVisas</v>
       </c>
       <c r="C109" s="3">
         <v>0</v>
@@ -7463,8 +7134,9 @@
       <c r="A110" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>1423</v>
+      <c r="B110" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramVisas</v>
       </c>
       <c r="C110" s="3">
         <v>500</v>
@@ -7485,8 +7157,9 @@
       <c r="A111" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>1423</v>
+      <c r="B111" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramVisas</v>
       </c>
       <c r="C111" s="3">
         <v>1250</v>
@@ -7507,8 +7180,9 @@
       <c r="A112" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>1423</v>
+      <c r="B112" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramVisas</v>
       </c>
       <c r="C112" s="3">
         <v>3000</v>
@@ -7529,8 +7203,9 @@
       <c r="A113" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>1423</v>
+      <c r="B113" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramVisas</v>
       </c>
       <c r="C113" s="3">
         <v>10000</v>
@@ -7551,8 +7226,9 @@
       <c r="A114" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>1424</v>
+      <c r="B114" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramZiemasRapsi</v>
       </c>
       <c r="C114" s="3">
         <v>0</v>
@@ -7573,8 +7249,9 @@
       <c r="A115" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>1424</v>
+      <c r="B115" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramZiemasRapsi</v>
       </c>
       <c r="C115" s="3">
         <v>500</v>
@@ -7595,8 +7272,9 @@
       <c r="A116" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B116" s="3" t="s">
-        <v>1424</v>
+      <c r="B116" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramZiemasRapsi</v>
       </c>
       <c r="C116" s="3">
         <v>1250</v>
@@ -7617,8 +7295,9 @@
       <c r="A117" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B117" s="3" t="s">
-        <v>1424</v>
+      <c r="B117" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramZiemasRapsi</v>
       </c>
       <c r="C117" s="3">
         <v>3000</v>
@@ -7639,8 +7318,9 @@
       <c r="A118" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="B118" s="3" t="s">
-        <v>1424</v>
+      <c r="B118" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AramZiemasRapsi</v>
       </c>
       <c r="C118" s="3">
         <v>10000</v>
@@ -7661,8 +7341,9 @@
       <c r="A119" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="B119" s="3" t="s">
-        <v>1425</v>
+      <c r="B119" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AugludarziLAD</v>
       </c>
       <c r="C119" s="3">
         <v>0</v>
@@ -7683,8 +7364,9 @@
       <c r="A120" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="B120" s="3" t="s">
-        <v>1425</v>
+      <c r="B120" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AugludarziLAD</v>
       </c>
       <c r="C120" s="3">
         <v>500</v>
@@ -7705,8 +7387,9 @@
       <c r="A121" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>1425</v>
+      <c r="B121" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AugludarziLAD</v>
       </c>
       <c r="C121" s="3">
         <v>1250</v>
@@ -7727,8 +7410,9 @@
       <c r="A122" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="B122" s="3" t="s">
-        <v>1425</v>
+      <c r="B122" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_AugludarziLAD</v>
       </c>
       <c r="C122" s="3">
         <v>3000</v>
@@ -7749,8 +7433,9 @@
       <c r="A123" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>1426</v>
+      <c r="B123" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_Bloki</v>
       </c>
       <c r="C123" s="3">
         <v>0</v>
@@ -7771,8 +7456,9 @@
       <c r="A124" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>1426</v>
+      <c r="B124" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_Bloki</v>
       </c>
       <c r="C124" s="3">
         <v>500</v>
@@ -7793,8 +7479,9 @@
       <c r="A125" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="B125" s="3" t="s">
-        <v>1426</v>
+      <c r="B125" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_Bloki</v>
       </c>
       <c r="C125" s="3">
         <v>1250</v>
@@ -7815,8 +7502,9 @@
       <c r="A126" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="B126" s="3" t="s">
-        <v>1426</v>
+      <c r="B126" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_Bloki</v>
       </c>
       <c r="C126" s="3">
         <v>3000</v>
@@ -7837,8 +7525,9 @@
       <c r="A127" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="B127" s="3" t="s">
-        <v>1426</v>
+      <c r="B127" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_Bloki</v>
       </c>
       <c r="C127" s="3">
         <v>10000</v>
@@ -7859,8 +7548,9 @@
       <c r="A128" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>1427</v>
+      <c r="B128" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_KrumiLAD</v>
       </c>
       <c r="C128" s="3">
         <v>0</v>
@@ -7881,8 +7571,9 @@
       <c r="A129" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="B129" s="3" t="s">
-        <v>1427</v>
+      <c r="B129" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_KrumiLAD</v>
       </c>
       <c r="C129" s="3">
         <v>500</v>
@@ -7903,8 +7594,9 @@
       <c r="A130" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="B130" s="3" t="s">
-        <v>1427</v>
+      <c r="B130" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lauku_KrumiLAD</v>
       </c>
       <c r="C130" s="3">
         <v>1250</v>
@@ -7925,8 +7617,9 @@
       <c r="A131" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="B131" s="3" t="s">
-        <v>1427</v>
+      <c r="B131" s="3" t="str">
+        <f t="shared" ref="B131:B194" si="2">_xlfn.TEXTBEFORE(A131,"_",2)</f>
+        <v>Lauku_KrumiLAD</v>
       </c>
       <c r="C131" s="3">
         <v>3000</v>
@@ -7947,8 +7640,9 @@
       <c r="A132" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>1428</v>
+      <c r="B132" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Lauku_Papuves</v>
       </c>
       <c r="C132" s="3">
         <v>0</v>
@@ -7969,8 +7663,9 @@
       <c r="A133" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="B133" s="3" t="s">
-        <v>1428</v>
+      <c r="B133" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Lauku_Papuves</v>
       </c>
       <c r="C133" s="3">
         <v>500</v>
@@ -7991,8 +7686,9 @@
       <c r="A134" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>1428</v>
+      <c r="B134" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Lauku_Papuves</v>
       </c>
       <c r="C134" s="3">
         <v>1250</v>
@@ -8013,8 +7709,9 @@
       <c r="A135" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="B135" s="3" t="s">
-        <v>1428</v>
+      <c r="B135" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Lauku_Papuves</v>
       </c>
       <c r="C135" s="3">
         <v>3000</v>
@@ -8035,8 +7732,9 @@
       <c r="A136" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="B136" s="3" t="s">
-        <v>1428</v>
+      <c r="B136" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Lauku_Papuves</v>
       </c>
       <c r="C136" s="3">
         <v>10000</v>
@@ -8057,8 +7755,9 @@
       <c r="A137" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="B137" s="3" t="s">
-        <v>1429</v>
+      <c r="B137" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Lauku_ZalajiBezatbNELAD</v>
       </c>
       <c r="C137" s="3">
         <v>0</v>
@@ -8083,8 +7782,9 @@
       <c r="A138" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="B138" s="3" t="s">
-        <v>1429</v>
+      <c r="B138" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Lauku_ZalajiBezatbNELAD</v>
       </c>
       <c r="C138" s="3">
         <v>500</v>
@@ -8109,8 +7809,9 @@
       <c r="A139" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="B139" s="3" t="s">
-        <v>1429</v>
+      <c r="B139" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Lauku_ZalajiBezatbNELAD</v>
       </c>
       <c r="C139" s="3">
         <v>1250</v>
@@ -8135,8 +7836,9 @@
       <c r="A140" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="B140" s="3" t="s">
-        <v>1429</v>
+      <c r="B140" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Lauku_ZalajiBezatbNELAD</v>
       </c>
       <c r="C140" s="3">
         <v>3000</v>
@@ -8157,8 +7859,9 @@
       <c r="A141" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="B141" s="3" t="s">
-        <v>1429</v>
+      <c r="B141" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Lauku_ZalajiBezatbNELAD</v>
       </c>
       <c r="C141" s="3">
         <v>10000</v>
@@ -8179,8 +7882,9 @@
       <c r="A142" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="B142" s="3" t="s">
-        <v>1430</v>
+      <c r="B142" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Lauku_ZalajiIlggadigie</v>
       </c>
       <c r="C142" s="3">
         <v>0</v>
@@ -8205,8 +7909,9 @@
       <c r="A143" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="B143" s="3" t="s">
-        <v>1430</v>
+      <c r="B143" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Lauku_ZalajiIlggadigie</v>
       </c>
       <c r="C143" s="3">
         <v>500</v>
@@ -8231,8 +7936,9 @@
       <c r="A144" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="B144" s="3" t="s">
-        <v>1430</v>
+      <c r="B144" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Lauku_ZalajiIlggadigie</v>
       </c>
       <c r="C144" s="3">
         <v>1250</v>
@@ -8257,8 +7963,9 @@
       <c r="A145" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="B145" s="3" t="s">
-        <v>1430</v>
+      <c r="B145" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Lauku_ZalajiIlggadigie</v>
       </c>
       <c r="C145" s="3">
         <v>3000</v>
@@ -8279,8 +7986,9 @@
       <c r="A146" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="B146" s="3" t="s">
-        <v>1430</v>
+      <c r="B146" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Lauku_ZalajiIlggadigie</v>
       </c>
       <c r="C146" s="3">
         <v>10000</v>
@@ -8301,8 +8009,9 @@
       <c r="A147" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="B147" s="3" t="s">
-        <v>1431</v>
+      <c r="B147" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Lauku_ZalajiKultivetie</v>
       </c>
       <c r="C147" s="3">
         <v>0</v>
@@ -8323,8 +8032,9 @@
       <c r="A148" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="B148" s="3" t="s">
-        <v>1431</v>
+      <c r="B148" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Lauku_ZalajiKultivetie</v>
       </c>
       <c r="C148" s="3">
         <v>500</v>
@@ -8345,8 +8055,9 @@
       <c r="A149" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="B149" s="3" t="s">
-        <v>1431</v>
+      <c r="B149" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Lauku_ZalajiKultivetie</v>
       </c>
       <c r="C149" s="3">
         <v>1250</v>
@@ -8367,8 +8078,9 @@
       <c r="A150" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="B150" s="3" t="s">
-        <v>1431</v>
+      <c r="B150" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Lauku_ZalajiKultivetie</v>
       </c>
       <c r="C150" s="3">
         <v>3000</v>
@@ -8389,8 +8101,9 @@
       <c r="A151" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="B151" s="3" t="s">
-        <v>1431</v>
+      <c r="B151" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Lauku_ZalajiKultivetie</v>
       </c>
       <c r="C151" s="3">
         <v>10000</v>
@@ -8411,8 +8124,9 @@
       <c r="A152" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="B152" s="3" t="s">
-        <v>1432</v>
+      <c r="B152" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Lauku_ZalajiVisi</v>
       </c>
       <c r="C152" s="3">
         <v>0</v>
@@ -8433,8 +8147,9 @@
       <c r="A153" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="B153" s="3" t="s">
-        <v>1432</v>
+      <c r="B153" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Lauku_ZalajiVisi</v>
       </c>
       <c r="C153" s="3">
         <v>500</v>
@@ -8455,8 +8170,9 @@
       <c r="A154" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="B154" s="3" t="s">
-        <v>1432</v>
+      <c r="B154" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Lauku_ZalajiVisi</v>
       </c>
       <c r="C154" s="3">
         <v>1250</v>
@@ -8477,8 +8193,9 @@
       <c r="A155" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="B155" s="3" t="s">
-        <v>1432</v>
+      <c r="B155" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Lauku_ZalajiVisi</v>
       </c>
       <c r="C155" s="3">
         <v>3000</v>
@@ -8499,8 +8216,9 @@
       <c r="A156" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B156" s="3" t="s">
-        <v>1432</v>
+      <c r="B156" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Lauku_ZalajiVisi</v>
       </c>
       <c r="C156" s="3">
         <v>10000</v>
@@ -8521,8 +8239,9 @@
       <c r="A157" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="B157" s="3" t="s">
-        <v>1433</v>
+      <c r="B157" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_Apbuve-Koki</v>
       </c>
       <c r="C157" s="3">
         <v>0</v>
@@ -8543,8 +8262,9 @@
       <c r="A158" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="B158" s="3" t="s">
-        <v>1433</v>
+      <c r="B158" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_Apbuve-Koki</v>
       </c>
       <c r="C158" s="3">
         <v>500</v>
@@ -8565,8 +8285,9 @@
       <c r="A159" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="B159" s="3" t="s">
-        <v>1433</v>
+      <c r="B159" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_Apbuve-Koki</v>
       </c>
       <c r="C159" s="3">
         <v>1250</v>
@@ -8587,8 +8308,9 @@
       <c r="A160" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="B160" s="3" t="s">
-        <v>1433</v>
+      <c r="B160" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_Apbuve-Koki</v>
       </c>
       <c r="C160" s="3">
         <v>3000</v>
@@ -8609,8 +8331,9 @@
       <c r="A161" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="B161" s="3" t="s">
-        <v>1433</v>
+      <c r="B161" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_Apbuve-Koki</v>
       </c>
       <c r="C161" s="3">
         <v>10000</v>
@@ -8631,8 +8354,9 @@
       <c r="A162" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="B162" s="3" t="s">
-        <v>1434</v>
+      <c r="B162" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_Apbuve-LIZ</v>
       </c>
       <c r="C162" s="3">
         <v>0</v>
@@ -8653,8 +8377,9 @@
       <c r="A163" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="B163" s="3" t="s">
-        <v>1434</v>
+      <c r="B163" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_Apbuve-LIZ</v>
       </c>
       <c r="C163" s="3">
         <v>500</v>
@@ -8675,8 +8400,9 @@
       <c r="A164" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="B164" s="3" t="s">
-        <v>1434</v>
+      <c r="B164" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_Apbuve-LIZ</v>
       </c>
       <c r="C164" s="3">
         <v>1250</v>
@@ -8697,8 +8423,9 @@
       <c r="A165" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="B165" s="3" t="s">
-        <v>1434</v>
+      <c r="B165" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_Apbuve-LIZ</v>
       </c>
       <c r="C165" s="3">
         <v>3000</v>
@@ -8719,8 +8446,9 @@
       <c r="A166" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="B166" s="3" t="s">
-        <v>1434</v>
+      <c r="B166" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_Apbuve-LIZ</v>
       </c>
       <c r="C166" s="3">
         <v>10000</v>
@@ -8741,8 +8469,9 @@
       <c r="A167" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="B167" s="3" t="s">
-        <v>1435</v>
+      <c r="B167" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_AramzemesY</v>
       </c>
       <c r="C167" s="3">
         <v>0</v>
@@ -8767,8 +8496,9 @@
       <c r="A168" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="B168" s="3" t="s">
-        <v>1435</v>
+      <c r="B168" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_AramzemesY</v>
       </c>
       <c r="C168" s="3">
         <v>500</v>
@@ -8793,8 +8523,9 @@
       <c r="A169" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="B169" s="3" t="s">
-        <v>1435</v>
+      <c r="B169" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_AramzemesY</v>
       </c>
       <c r="C169" s="3">
         <v>1250</v>
@@ -8819,8 +8550,9 @@
       <c r="A170" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="B170" s="3" t="s">
-        <v>1435</v>
+      <c r="B170" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_AramzemesY</v>
       </c>
       <c r="C170" s="3">
         <v>3000</v>
@@ -8841,8 +8573,9 @@
       <c r="A171" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="B171" s="3" t="s">
-        <v>1435</v>
+      <c r="B171" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_AramzemesY</v>
       </c>
       <c r="C171" s="3">
         <v>10000</v>
@@ -8863,8 +8596,9 @@
       <c r="A172" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="B172" s="3" t="s">
-        <v>1436</v>
+      <c r="B172" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_Celi</v>
       </c>
       <c r="C172" s="3">
         <v>0</v>
@@ -8889,8 +8623,9 @@
       <c r="A173" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="B173" s="3" t="s">
-        <v>1436</v>
+      <c r="B173" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_Celi</v>
       </c>
       <c r="C173" s="3">
         <v>500</v>
@@ -8915,8 +8650,9 @@
       <c r="A174" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="B174" s="3" t="s">
-        <v>1436</v>
+      <c r="B174" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_Celi</v>
       </c>
       <c r="C174" s="3">
         <v>1250</v>
@@ -8941,8 +8677,9 @@
       <c r="A175" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="B175" s="3" t="s">
-        <v>1436</v>
+      <c r="B175" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_Celi</v>
       </c>
       <c r="C175" s="3">
         <v>3000</v>
@@ -8963,8 +8700,9 @@
       <c r="A176" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="B176" s="3" t="s">
-        <v>1436</v>
+      <c r="B176" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_Celi</v>
       </c>
       <c r="C176" s="3">
         <v>10000</v>
@@ -8985,8 +8723,9 @@
       <c r="A177" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="B177" s="3" t="s">
-        <v>1437</v>
+      <c r="B177" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_KokiY</v>
       </c>
       <c r="C177" s="3">
         <v>0</v>
@@ -9011,8 +8750,9 @@
       <c r="A178" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="B178" s="3" t="s">
-        <v>1437</v>
+      <c r="B178" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_KokiY</v>
       </c>
       <c r="C178" s="3">
         <v>500</v>
@@ -9037,8 +8777,9 @@
       <c r="A179" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="B179" s="3" t="s">
-        <v>1437</v>
+      <c r="B179" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_KokiY</v>
       </c>
       <c r="C179" s="3">
         <v>1250</v>
@@ -9063,8 +8804,9 @@
       <c r="A180" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="B180" s="3" t="s">
-        <v>1437</v>
+      <c r="B180" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_KokiY</v>
       </c>
       <c r="C180" s="3">
         <v>3000</v>
@@ -9085,8 +8827,9 @@
       <c r="A181" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="B181" s="3" t="s">
-        <v>1437</v>
+      <c r="B181" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_KokiY</v>
       </c>
       <c r="C181" s="3">
         <v>10000</v>
@@ -9107,8 +8850,9 @@
       <c r="A182" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="B182" s="3" t="s">
-        <v>1438</v>
+      <c r="B182" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_LIZzemieKoki-Koki</v>
       </c>
       <c r="C182" s="3">
         <v>0</v>
@@ -9133,8 +8877,9 @@
       <c r="A183" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="B183" s="3" t="s">
-        <v>1438</v>
+      <c r="B183" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_LIZzemieKoki-Koki</v>
       </c>
       <c r="C183" s="3">
         <v>500</v>
@@ -9159,8 +8904,9 @@
       <c r="A184" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="B184" s="3" t="s">
-        <v>1438</v>
+      <c r="B184" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_LIZzemieKoki-Koki</v>
       </c>
       <c r="C184" s="3">
         <v>1250</v>
@@ -9185,8 +8931,9 @@
       <c r="A185" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="B185" s="3" t="s">
-        <v>1438</v>
+      <c r="B185" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_LIZzemieKoki-Koki</v>
       </c>
       <c r="C185" s="3">
         <v>3000</v>
@@ -9207,8 +8954,9 @@
       <c r="A186" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="B186" s="3" t="s">
-        <v>1438</v>
+      <c r="B186" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_LIZzemieKoki-Koki</v>
       </c>
       <c r="C186" s="3">
         <v>10000</v>
@@ -9229,8 +8977,9 @@
       <c r="A187" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="B187" s="3" t="s">
-        <v>1439</v>
+      <c r="B187" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_NiedrajiBebraines-Udens</v>
       </c>
       <c r="C187" s="3">
         <v>0</v>
@@ -9251,8 +9000,9 @@
       <c r="A188" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="B188" s="3" t="s">
-        <v>1439</v>
+      <c r="B188" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_NiedrajiBebraines-Udens</v>
       </c>
       <c r="C188" s="3">
         <v>500</v>
@@ -9273,8 +9023,9 @@
       <c r="A189" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="B189" s="3" t="s">
-        <v>1439</v>
+      <c r="B189" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_NiedrajiBebraines-Udens</v>
       </c>
       <c r="C189" s="3">
         <v>1250</v>
@@ -9295,8 +9046,9 @@
       <c r="A190" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="B190" s="3" t="s">
-        <v>1439</v>
+      <c r="B190" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_NiedrajiBebraines-Udens</v>
       </c>
       <c r="C190" s="3">
         <v>3000</v>
@@ -9317,8 +9069,9 @@
       <c r="A191" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="B191" s="3" t="s">
-        <v>1439</v>
+      <c r="B191" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_NiedrajiBebraines-Udens</v>
       </c>
       <c r="C191" s="3">
         <v>10000</v>
@@ -9339,8 +9092,9 @@
       <c r="A192" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="B192" s="3" t="s">
-        <v>1440</v>
+      <c r="B192" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_PieaugParaugY</v>
       </c>
       <c r="C192" s="3">
         <v>0</v>
@@ -9365,8 +9119,9 @@
       <c r="A193" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="B193" s="3" t="s">
-        <v>1440</v>
+      <c r="B193" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_PieaugParaugY</v>
       </c>
       <c r="C193" s="3">
         <v>500</v>
@@ -9391,8 +9146,9 @@
       <c r="A194" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="B194" s="3" t="s">
-        <v>1440</v>
+      <c r="B194" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Malas_PieaugParaugY</v>
       </c>
       <c r="C194" s="3">
         <v>1250</v>
@@ -9417,8 +9173,9 @@
       <c r="A195" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="B195" s="3" t="s">
-        <v>1440</v>
+      <c r="B195" s="3" t="str">
+        <f t="shared" ref="B195:B258" si="3">_xlfn.TEXTBEFORE(A195,"_",2)</f>
+        <v>Malas_PieaugParaugY</v>
       </c>
       <c r="C195" s="3">
         <v>3000</v>
@@ -9439,8 +9196,9 @@
       <c r="A196" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="B196" s="3" t="s">
-        <v>1440</v>
+      <c r="B196" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Malas_PieaugParaugY</v>
       </c>
       <c r="C196" s="3">
         <v>10000</v>
@@ -9461,8 +9219,9 @@
       <c r="A197" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="B197" s="3" t="s">
-        <v>1441</v>
+      <c r="B197" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Malas_Udens-LIZ</v>
       </c>
       <c r="C197" s="3">
         <v>0</v>
@@ -9483,8 +9242,9 @@
       <c r="A198" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="B198" s="3" t="s">
-        <v>1441</v>
+      <c r="B198" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Malas_Udens-LIZ</v>
       </c>
       <c r="C198" s="3">
         <v>500</v>
@@ -9505,8 +9265,9 @@
       <c r="A199" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="B199" s="3" t="s">
-        <v>1441</v>
+      <c r="B199" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Malas_Udens-LIZ</v>
       </c>
       <c r="C199" s="3">
         <v>1250</v>
@@ -9527,8 +9288,9 @@
       <c r="A200" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="B200" s="3" t="s">
-        <v>1441</v>
+      <c r="B200" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Malas_Udens-LIZ</v>
       </c>
       <c r="C200" s="3">
         <v>3000</v>
@@ -9549,8 +9311,9 @@
       <c r="A201" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="B201" s="3" t="s">
-        <v>1441</v>
+      <c r="B201" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Malas_Udens-LIZ</v>
       </c>
       <c r="C201" s="3">
         <v>10000</v>
@@ -9571,8 +9334,9 @@
       <c r="A202" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="B202" s="3" t="s">
-        <v>1442</v>
+      <c r="B202" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Malas_Udens-Zalaji</v>
       </c>
       <c r="C202" s="3">
         <v>0</v>
@@ -9593,8 +9357,9 @@
       <c r="A203" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="B203" s="3" t="s">
-        <v>1442</v>
+      <c r="B203" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Malas_Udens-Zalaji</v>
       </c>
       <c r="C203" s="3">
         <v>500</v>
@@ -9615,8 +9380,9 @@
       <c r="A204" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="B204" s="3" t="s">
-        <v>1442</v>
+      <c r="B204" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Malas_Udens-Zalaji</v>
       </c>
       <c r="C204" s="3">
         <v>1250</v>
@@ -9637,8 +9403,9 @@
       <c r="A205" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="B205" s="3" t="s">
-        <v>1442</v>
+      <c r="B205" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Malas_Udens-Zalaji</v>
       </c>
       <c r="C205" s="3">
         <v>3000</v>
@@ -9659,8 +9426,9 @@
       <c r="A206" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="B206" s="3" t="s">
-        <v>1442</v>
+      <c r="B206" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Malas_Udens-Zalaji</v>
       </c>
       <c r="C206" s="3">
         <v>10000</v>
@@ -9681,8 +9449,9 @@
       <c r="A207" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="B207" s="3" t="s">
-        <v>1443</v>
+      <c r="B207" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Malas_UdensY</v>
       </c>
       <c r="C207" s="3">
         <v>0</v>
@@ -9703,8 +9472,9 @@
       <c r="A208" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="B208" s="3" t="s">
-        <v>1443</v>
+      <c r="B208" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Malas_UdensY</v>
       </c>
       <c r="C208" s="3">
         <v>500</v>
@@ -9725,8 +9495,9 @@
       <c r="A209" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="B209" s="3" t="s">
-        <v>1443</v>
+      <c r="B209" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Malas_UdensY</v>
       </c>
       <c r="C209" s="3">
         <v>1250</v>
@@ -9747,8 +9518,9 @@
       <c r="A210" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="B210" s="3" t="s">
-        <v>1443</v>
+      <c r="B210" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Malas_UdensY</v>
       </c>
       <c r="C210" s="3">
         <v>3000</v>
@@ -9769,8 +9541,9 @@
       <c r="A211" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="B211" s="3" t="s">
-        <v>1443</v>
+      <c r="B211" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Malas_UdensY</v>
       </c>
       <c r="C211" s="3">
         <v>10000</v>
@@ -9791,8 +9564,9 @@
       <c r="A212" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="B212" s="3" t="s">
-        <v>1444</v>
+      <c r="B212" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Malas_ZalajiY</v>
       </c>
       <c r="C212" s="3">
         <v>0</v>
@@ -9817,8 +9591,9 @@
       <c r="A213" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="B213" s="3" t="s">
-        <v>1444</v>
+      <c r="B213" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Malas_ZalajiY</v>
       </c>
       <c r="C213" s="3">
         <v>500</v>
@@ -9843,8 +9618,9 @@
       <c r="A214" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="B214" s="3" t="s">
-        <v>1444</v>
+      <c r="B214" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Malas_ZalajiY</v>
       </c>
       <c r="C214" s="3">
         <v>1250</v>
@@ -9869,8 +9645,9 @@
       <c r="A215" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="B215" s="3" t="s">
-        <v>1444</v>
+      <c r="B215" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Malas_ZalajiY</v>
       </c>
       <c r="C215" s="3">
         <v>3000</v>
@@ -9891,8 +9668,9 @@
       <c r="A216" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="B216" s="3" t="s">
-        <v>1444</v>
+      <c r="B216" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Malas_ZalajiY</v>
       </c>
       <c r="C216" s="3">
         <v>10000</v>
@@ -9913,8 +9691,9 @@
       <c r="A217" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="B217" s="3" t="s">
-        <v>1445</v>
+      <c r="B217" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_ApsuKraja-sum</v>
       </c>
       <c r="C217" s="3">
         <v>0</v>
@@ -9935,8 +9714,9 @@
       <c r="A218" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="B218" s="3" t="s">
-        <v>1446</v>
+      <c r="B218" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_BerzuKraja-sum</v>
       </c>
       <c r="C218" s="3">
         <v>0</v>
@@ -9957,8 +9737,9 @@
       <c r="A219" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="B219" s="3" t="s">
-        <v>1447</v>
+      <c r="B219" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_EgluKraja-sum</v>
       </c>
       <c r="C219" s="3">
         <v>0</v>
@@ -9979,8 +9760,9 @@
       <c r="A220" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="B220" s="3" t="s">
-        <v>1448</v>
+      <c r="B220" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_EitrPurv</v>
       </c>
       <c r="C220" s="3">
         <v>0</v>
@@ -10001,8 +9783,9 @@
       <c r="A221" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="B221" s="3" t="s">
-        <v>1448</v>
+      <c r="B221" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_EitrPurv</v>
       </c>
       <c r="C221" s="3">
         <v>1250</v>
@@ -10023,8 +9806,9 @@
       <c r="A222" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="B222" s="3" t="s">
-        <v>1448</v>
+      <c r="B222" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_EitrPurv</v>
       </c>
       <c r="C222" s="3">
         <v>3000</v>
@@ -10045,8 +9829,9 @@
       <c r="A223" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="B223" s="3" t="s">
-        <v>1448</v>
+      <c r="B223" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_EitrPurv</v>
       </c>
       <c r="C223" s="3">
         <v>10000</v>
@@ -10067,8 +9852,9 @@
       <c r="A224" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="B224" s="3" t="s">
-        <v>1449</v>
+      <c r="B224" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_EitrSaus</v>
       </c>
       <c r="C224" s="3">
         <v>0</v>
@@ -10089,8 +9875,9 @@
       <c r="A225" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="B225" s="3" t="s">
-        <v>1449</v>
+      <c r="B225" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_EitrSaus</v>
       </c>
       <c r="C225" s="3">
         <v>1250</v>
@@ -10111,8 +9898,9 @@
       <c r="A226" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="B226" s="3" t="s">
-        <v>1449</v>
+      <c r="B226" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_EitrSaus</v>
       </c>
       <c r="C226" s="3">
         <v>3000</v>
@@ -10133,8 +9921,9 @@
       <c r="A227" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="B227" s="3" t="s">
-        <v>1449</v>
+      <c r="B227" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_EitrSaus</v>
       </c>
       <c r="C227" s="3">
         <v>10000</v>
@@ -10155,8 +9944,9 @@
       <c r="A228" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="B228" s="3" t="s">
-        <v>1450</v>
+      <c r="B228" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_EitrSus</v>
       </c>
       <c r="C228" s="3">
         <v>0</v>
@@ -10177,8 +9967,9 @@
       <c r="A229" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="B229" s="3" t="s">
-        <v>1450</v>
+      <c r="B229" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_EitrSus</v>
       </c>
       <c r="C229" s="3">
         <v>1250</v>
@@ -10199,8 +9990,9 @@
       <c r="A230" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="B230" s="3" t="s">
-        <v>1450</v>
+      <c r="B230" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_EitrSus</v>
       </c>
       <c r="C230" s="3">
         <v>3000</v>
@@ -10221,8 +10013,9 @@
       <c r="A231" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="B231" s="3" t="s">
-        <v>1450</v>
+      <c r="B231" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_EitrSus</v>
       </c>
       <c r="C231" s="3">
         <v>10000</v>
@@ -10243,8 +10036,9 @@
       <c r="A232" s="3" t="s">
         <v>927</v>
       </c>
-      <c r="B232" s="3" t="s">
-        <v>1451</v>
+      <c r="B232" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_IzcUNzem5m</v>
       </c>
       <c r="C232" s="3">
         <v>0</v>
@@ -10265,8 +10059,9 @@
       <c r="A233" s="3" t="s">
         <v>931</v>
       </c>
-      <c r="B233" s="3" t="s">
-        <v>1451</v>
+      <c r="B233" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_IzcUNzem5m</v>
       </c>
       <c r="C233" s="3">
         <v>500</v>
@@ -10287,8 +10082,9 @@
       <c r="A234" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="B234" s="3" t="s">
-        <v>1451</v>
+      <c r="B234" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_IzcUNzem5m</v>
       </c>
       <c r="C234" s="3">
         <v>1250</v>
@@ -10309,8 +10105,9 @@
       <c r="A235" s="3" t="s">
         <v>939</v>
       </c>
-      <c r="B235" s="3" t="s">
-        <v>1451</v>
+      <c r="B235" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_IzcUNzem5m</v>
       </c>
       <c r="C235" s="3">
         <v>3000</v>
@@ -10331,8 +10128,9 @@
       <c r="A236" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="B236" s="3" t="s">
-        <v>1451</v>
+      <c r="B236" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_IzcUNzem5m</v>
       </c>
       <c r="C236" s="3">
         <v>10000</v>
@@ -10353,8 +10151,9 @@
       <c r="A237" s="3" t="s">
         <v>947</v>
       </c>
-      <c r="B237" s="3" t="s">
-        <v>1452</v>
+      <c r="B237" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_Jauktukoku</v>
       </c>
       <c r="C237" s="3">
         <v>0</v>
@@ -10375,8 +10174,9 @@
       <c r="A238" s="3" t="s">
         <v>951</v>
       </c>
-      <c r="B238" s="3" t="s">
-        <v>1452</v>
+      <c r="B238" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_Jauktukoku</v>
       </c>
       <c r="C238" s="3">
         <v>1250</v>
@@ -10397,8 +10197,9 @@
       <c r="A239" s="3" t="s">
         <v>955</v>
       </c>
-      <c r="B239" s="3" t="s">
-        <v>1452</v>
+      <c r="B239" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_Jauktukoku</v>
       </c>
       <c r="C239" s="3">
         <v>3000</v>
@@ -10419,8 +10220,9 @@
       <c r="A240" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="B240" s="3" t="s">
-        <v>1452</v>
+      <c r="B240" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_Jauktukoku</v>
       </c>
       <c r="C240" s="3">
         <v>10000</v>
@@ -10441,8 +10243,9 @@
       <c r="A241" s="3" t="s">
         <v>963</v>
       </c>
-      <c r="B241" s="3" t="s">
-        <v>1453</v>
+      <c r="B241" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_JauktukokuJaunas</v>
       </c>
       <c r="C241" s="3">
         <v>0</v>
@@ -10463,8 +10266,9 @@
       <c r="A242" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="B242" s="3" t="s">
-        <v>1453</v>
+      <c r="B242" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_JauktukokuJaunas</v>
       </c>
       <c r="C242" s="3">
         <v>500</v>
@@ -10485,8 +10289,9 @@
       <c r="A243" s="3" t="s">
         <v>971</v>
       </c>
-      <c r="B243" s="3" t="s">
-        <v>1453</v>
+      <c r="B243" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_JauktukokuJaunas</v>
       </c>
       <c r="C243" s="3">
         <v>1250</v>
@@ -10507,8 +10312,9 @@
       <c r="A244" s="3" t="s">
         <v>975</v>
       </c>
-      <c r="B244" s="3" t="s">
-        <v>1453</v>
+      <c r="B244" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_JauktukokuJaunas</v>
       </c>
       <c r="C244" s="3">
         <v>3000</v>
@@ -10529,8 +10335,9 @@
       <c r="A245" s="3" t="s">
         <v>979</v>
       </c>
-      <c r="B245" s="3" t="s">
-        <v>1454</v>
+      <c r="B245" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_JauktukokuVecas</v>
       </c>
       <c r="C245" s="3">
         <v>0</v>
@@ -10551,8 +10358,9 @@
       <c r="A246" s="3" t="s">
         <v>983</v>
       </c>
-      <c r="B246" s="3" t="s">
-        <v>1454</v>
+      <c r="B246" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_JauktukokuVecas</v>
       </c>
       <c r="C246" s="3">
         <v>500</v>
@@ -10573,8 +10381,9 @@
       <c r="A247" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="B247" s="3" t="s">
-        <v>1454</v>
+      <c r="B247" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_JauktukokuVecas</v>
       </c>
       <c r="C247" s="3">
         <v>1250</v>
@@ -10595,8 +10404,9 @@
       <c r="A248" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="B248" s="3" t="s">
-        <v>1454</v>
+      <c r="B248" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_JauktukokuVecas</v>
       </c>
       <c r="C248" s="3">
         <v>3000</v>
@@ -10617,8 +10427,9 @@
       <c r="A249" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="B249" s="3" t="s">
-        <v>1455</v>
+      <c r="B249" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_Jaunaudzes5mKrumaji</v>
       </c>
       <c r="C249" s="3">
         <v>0</v>
@@ -10639,8 +10450,9 @@
       <c r="A250" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="B250" s="3" t="s">
-        <v>1455</v>
+      <c r="B250" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_Jaunaudzes5mKrumaji</v>
       </c>
       <c r="C250" s="3">
         <v>500</v>
@@ -10661,8 +10473,9 @@
       <c r="A251" s="3" t="s">
         <v>1003</v>
       </c>
-      <c r="B251" s="3" t="s">
-        <v>1455</v>
+      <c r="B251" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_Jaunaudzes5mKrumaji</v>
       </c>
       <c r="C251" s="3">
         <v>1250</v>
@@ -10683,8 +10496,9 @@
       <c r="A252" s="3" t="s">
         <v>1007</v>
       </c>
-      <c r="B252" s="3" t="s">
-        <v>1455</v>
+      <c r="B252" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_Jaunaudzes5mKrumaji</v>
       </c>
       <c r="C252" s="3">
         <v>3000</v>
@@ -10705,8 +10519,9 @@
       <c r="A253" s="3" t="s">
         <v>1011</v>
       </c>
-      <c r="B253" s="3" t="s">
-        <v>1455</v>
+      <c r="B253" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_Jaunaudzes5mKrumaji</v>
       </c>
       <c r="C253" s="3">
         <v>10000</v>
@@ -10727,8 +10542,9 @@
       <c r="A254" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="B254" s="3" t="s">
-        <v>1456</v>
+      <c r="B254" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_KopejaKraja-sum</v>
       </c>
       <c r="C254" s="3">
         <v>0</v>
@@ -10753,8 +10569,9 @@
       <c r="A255" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="B255" s="3" t="s">
-        <v>1457</v>
+      <c r="B255" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_LielakaisDiametrs-max</v>
       </c>
       <c r="C255" s="3">
         <v>0</v>
@@ -10775,8 +10592,9 @@
       <c r="A256" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="B256" s="3" t="s">
-        <v>1458</v>
+      <c r="B256" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_MelnalksnuKraja-sum</v>
       </c>
       <c r="C256" s="3">
         <v>0</v>
@@ -10797,8 +10615,9 @@
       <c r="A257" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="B257" s="3" t="s">
-        <v>1459</v>
+      <c r="B257" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_MezoSaus</v>
       </c>
       <c r="C257" s="3">
         <v>0</v>
@@ -10819,8 +10638,9 @@
       <c r="A258" s="3" t="s">
         <v>1031</v>
       </c>
-      <c r="B258" s="3" t="s">
-        <v>1459</v>
+      <c r="B258" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mezi_MezoSaus</v>
       </c>
       <c r="C258" s="3">
         <v>1250</v>
@@ -10841,8 +10661,9 @@
       <c r="A259" s="3" t="s">
         <v>1035</v>
       </c>
-      <c r="B259" s="3" t="s">
-        <v>1459</v>
+      <c r="B259" s="3" t="str">
+        <f t="shared" ref="B259:B322" si="4">_xlfn.TEXTBEFORE(A259,"_",2)</f>
+        <v>Mezi_MezoSaus</v>
       </c>
       <c r="C259" s="3">
         <v>3000</v>
@@ -10863,8 +10684,9 @@
       <c r="A260" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="B260" s="3" t="s">
-        <v>1459</v>
+      <c r="B260" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_MezoSaus</v>
       </c>
       <c r="C260" s="3">
         <v>10000</v>
@@ -10885,8 +10707,9 @@
       <c r="A261" s="3" t="s">
         <v>1043</v>
       </c>
-      <c r="B261" s="3" t="s">
-        <v>1460</v>
+      <c r="B261" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_NogabalaVecumaProp-vid</v>
       </c>
       <c r="C261" s="3">
         <v>0</v>
@@ -10907,8 +10730,9 @@
       <c r="A262" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="B262" s="3" t="s">
-        <v>1461</v>
+      <c r="B262" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_OligoPurv</v>
       </c>
       <c r="C262" s="3">
         <v>0</v>
@@ -10929,8 +10753,9 @@
       <c r="A263" s="3" t="s">
         <v>1051</v>
       </c>
-      <c r="B263" s="3" t="s">
-        <v>1461</v>
+      <c r="B263" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_OligoPurv</v>
       </c>
       <c r="C263" s="3">
         <v>1250</v>
@@ -10951,8 +10776,9 @@
       <c r="A264" s="3" t="s">
         <v>1055</v>
       </c>
-      <c r="B264" s="3" t="s">
-        <v>1461</v>
+      <c r="B264" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_OligoPurv</v>
       </c>
       <c r="C264" s="3">
         <v>3000</v>
@@ -10973,8 +10799,9 @@
       <c r="A265" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="B265" s="3" t="s">
-        <v>1461</v>
+      <c r="B265" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_OligoPurv</v>
       </c>
       <c r="C265" s="3">
         <v>10000</v>
@@ -10995,8 +10822,9 @@
       <c r="A266" s="3" t="s">
         <v>1063</v>
       </c>
-      <c r="B266" s="3" t="s">
-        <v>1462</v>
+      <c r="B266" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_OligoSaus</v>
       </c>
       <c r="C266" s="3">
         <v>0</v>
@@ -11017,8 +10845,9 @@
       <c r="A267" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="B267" s="3" t="s">
-        <v>1462</v>
+      <c r="B267" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_OligoSaus</v>
       </c>
       <c r="C267" s="3">
         <v>1250</v>
@@ -11039,8 +10868,9 @@
       <c r="A268" s="3" t="s">
         <v>1071</v>
       </c>
-      <c r="B268" s="3" t="s">
-        <v>1462</v>
+      <c r="B268" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_OligoSaus</v>
       </c>
       <c r="C268" s="3">
         <v>3000</v>
@@ -11061,8 +10891,9 @@
       <c r="A269" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="B269" s="3" t="s">
-        <v>1462</v>
+      <c r="B269" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_OligoSaus</v>
       </c>
       <c r="C269" s="3">
         <v>10000</v>
@@ -11083,8 +10914,9 @@
       <c r="A270" s="3" t="s">
         <v>1079</v>
       </c>
-      <c r="B270" s="3" t="s">
-        <v>1463</v>
+      <c r="B270" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_OligoSus</v>
       </c>
       <c r="C270" s="3">
         <v>0</v>
@@ -11105,8 +10937,9 @@
       <c r="A271" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="B271" s="3" t="s">
-        <v>1463</v>
+      <c r="B271" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_OligoSus</v>
       </c>
       <c r="C271" s="3">
         <v>1250</v>
@@ -11127,8 +10960,9 @@
       <c r="A272" s="3" t="s">
         <v>1087</v>
       </c>
-      <c r="B272" s="3" t="s">
-        <v>1463</v>
+      <c r="B272" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_OligoSus</v>
       </c>
       <c r="C272" s="3">
         <v>3000</v>
@@ -11149,8 +10983,9 @@
       <c r="A273" s="3" t="s">
         <v>1091</v>
       </c>
-      <c r="B273" s="3" t="s">
-        <v>1463</v>
+      <c r="B273" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_OligoSus</v>
       </c>
       <c r="C273" s="3">
         <v>10000</v>
@@ -11171,8 +11006,9 @@
       <c r="A274" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="B274" s="3" t="s">
-        <v>1464</v>
+      <c r="B274" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_PieaugParaug</v>
       </c>
       <c r="C274" s="3">
         <v>0</v>
@@ -11193,8 +11029,9 @@
       <c r="A275" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="B275" s="3" t="s">
-        <v>1464</v>
+      <c r="B275" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_PieaugParaug</v>
       </c>
       <c r="C275" s="3">
         <v>500</v>
@@ -11219,8 +11056,9 @@
       <c r="A276" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="B276" s="3" t="s">
-        <v>1464</v>
+      <c r="B276" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_PieaugParaug</v>
       </c>
       <c r="C276" s="3">
         <v>1250</v>
@@ -11245,8 +11083,9 @@
       <c r="A277" s="3" t="s">
         <v>1107</v>
       </c>
-      <c r="B277" s="3" t="s">
-        <v>1464</v>
+      <c r="B277" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_PieaugParaug</v>
       </c>
       <c r="C277" s="3">
         <v>3000</v>
@@ -11267,8 +11106,9 @@
       <c r="A278" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="B278" s="3" t="s">
-        <v>1464</v>
+      <c r="B278" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_PieaugParaug</v>
       </c>
       <c r="C278" s="3">
         <v>10000</v>
@@ -11289,8 +11129,9 @@
       <c r="A279" s="3" t="s">
         <v>1115</v>
       </c>
-      <c r="B279" s="3" t="s">
-        <v>1465</v>
+      <c r="B279" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_Platlapju</v>
       </c>
       <c r="C279" s="3">
         <v>0</v>
@@ -11311,8 +11152,9 @@
       <c r="A280" s="3" t="s">
         <v>1119</v>
       </c>
-      <c r="B280" s="3" t="s">
-        <v>1465</v>
+      <c r="B280" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_Platlapju</v>
       </c>
       <c r="C280" s="3">
         <v>1250</v>
@@ -11333,8 +11175,9 @@
       <c r="A281" s="3" t="s">
         <v>1123</v>
       </c>
-      <c r="B281" s="3" t="s">
-        <v>1465</v>
+      <c r="B281" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_Platlapju</v>
       </c>
       <c r="C281" s="3">
         <v>3000</v>
@@ -11355,8 +11198,9 @@
       <c r="A282" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="B282" s="3" t="s">
-        <v>1465</v>
+      <c r="B282" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_Platlapju</v>
       </c>
       <c r="C282" s="3">
         <v>10000</v>
@@ -11377,8 +11221,9 @@
       <c r="A283" s="3" t="s">
         <v>1131</v>
       </c>
-      <c r="B283" s="3" t="s">
-        <v>1466</v>
+      <c r="B283" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_PlatlapjuJaunas</v>
       </c>
       <c r="C283" s="3">
         <v>0</v>
@@ -11399,8 +11244,9 @@
       <c r="A284" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="B284" s="3" t="s">
-        <v>1466</v>
+      <c r="B284" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_PlatlapjuJaunas</v>
       </c>
       <c r="C284" s="3">
         <v>500</v>
@@ -11421,8 +11267,9 @@
       <c r="A285" s="3" t="s">
         <v>1139</v>
       </c>
-      <c r="B285" s="3" t="s">
-        <v>1466</v>
+      <c r="B285" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_PlatlapjuJaunas</v>
       </c>
       <c r="C285" s="3">
         <v>1250</v>
@@ -11443,8 +11290,9 @@
       <c r="A286" s="3" t="s">
         <v>1143</v>
       </c>
-      <c r="B286" s="3" t="s">
-        <v>1466</v>
+      <c r="B286" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_PlatlapjuJaunas</v>
       </c>
       <c r="C286" s="3">
         <v>3000</v>
@@ -11465,8 +11313,9 @@
       <c r="A287" s="3" t="s">
         <v>1147</v>
       </c>
-      <c r="B287" s="3" t="s">
-        <v>1467</v>
+      <c r="B287" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_PlatlapjuKraja-sum</v>
       </c>
       <c r="C287" s="3">
         <v>0</v>
@@ -11487,8 +11336,9 @@
       <c r="A288" s="3" t="s">
         <v>1151</v>
       </c>
-      <c r="B288" s="3" t="s">
-        <v>1468</v>
+      <c r="B288" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_PlatlapjuVecas</v>
       </c>
       <c r="C288" s="3">
         <v>0</v>
@@ -11509,8 +11359,9 @@
       <c r="A289" s="3" t="s">
         <v>1155</v>
       </c>
-      <c r="B289" s="3" t="s">
-        <v>1468</v>
+      <c r="B289" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_PlatlapjuVecas</v>
       </c>
       <c r="C289" s="3">
         <v>500</v>
@@ -11531,8 +11382,9 @@
       <c r="A290" s="3" t="s">
         <v>1159</v>
       </c>
-      <c r="B290" s="3" t="s">
-        <v>1468</v>
+      <c r="B290" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_PlatlapjuVecas</v>
       </c>
       <c r="C290" s="3">
         <v>1250</v>
@@ -11553,8 +11405,9 @@
       <c r="A291" s="3" t="s">
         <v>1163</v>
       </c>
-      <c r="B291" s="3" t="s">
-        <v>1468</v>
+      <c r="B291" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_PlatlapjuVecas</v>
       </c>
       <c r="C291" s="3">
         <v>3000</v>
@@ -11575,8 +11428,9 @@
       <c r="A292" s="3" t="s">
         <v>1167</v>
       </c>
-      <c r="B292" s="3" t="s">
-        <v>1469</v>
+      <c r="B292" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_PriezuKraja-sum</v>
       </c>
       <c r="C292" s="3">
         <v>0</v>
@@ -11597,8 +11451,9 @@
       <c r="A293" s="3" t="s">
         <v>1171</v>
       </c>
-      <c r="B293" s="3" t="s">
-        <v>1470</v>
+      <c r="B293" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_Saurlapju</v>
       </c>
       <c r="C293" s="3">
         <v>0</v>
@@ -11619,8 +11474,9 @@
       <c r="A294" s="3" t="s">
         <v>1175</v>
       </c>
-      <c r="B294" s="3" t="s">
-        <v>1470</v>
+      <c r="B294" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_Saurlapju</v>
       </c>
       <c r="C294" s="3">
         <v>1250</v>
@@ -11641,8 +11497,9 @@
       <c r="A295" s="3" t="s">
         <v>1179</v>
       </c>
-      <c r="B295" s="3" t="s">
-        <v>1470</v>
+      <c r="B295" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_Saurlapju</v>
       </c>
       <c r="C295" s="3">
         <v>3000</v>
@@ -11663,8 +11520,9 @@
       <c r="A296" s="3" t="s">
         <v>1183</v>
       </c>
-      <c r="B296" s="3" t="s">
-        <v>1470</v>
+      <c r="B296" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_Saurlapju</v>
       </c>
       <c r="C296" s="3">
         <v>10000</v>
@@ -11685,8 +11543,9 @@
       <c r="A297" s="3" t="s">
         <v>1187</v>
       </c>
-      <c r="B297" s="3" t="s">
-        <v>1471</v>
+      <c r="B297" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_SaurlapjuCKraja-sum</v>
       </c>
       <c r="C297" s="3">
         <v>0</v>
@@ -11707,8 +11566,9 @@
       <c r="A298" s="3" t="s">
         <v>1191</v>
       </c>
-      <c r="B298" s="3" t="s">
-        <v>1472</v>
+      <c r="B298" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_SaurlapjuJaunas</v>
       </c>
       <c r="C298" s="3">
         <v>0</v>
@@ -11729,8 +11589,9 @@
       <c r="A299" s="3" t="s">
         <v>1195</v>
       </c>
-      <c r="B299" s="3" t="s">
-        <v>1472</v>
+      <c r="B299" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_SaurlapjuJaunas</v>
       </c>
       <c r="C299" s="3">
         <v>500</v>
@@ -11751,8 +11612,9 @@
       <c r="A300" s="3" t="s">
         <v>1199</v>
       </c>
-      <c r="B300" s="3" t="s">
-        <v>1472</v>
+      <c r="B300" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_SaurlapjuJaunas</v>
       </c>
       <c r="C300" s="3">
         <v>1250</v>
@@ -11773,8 +11635,9 @@
       <c r="A301" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="B301" s="3" t="s">
-        <v>1472</v>
+      <c r="B301" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_SaurlapjuJaunas</v>
       </c>
       <c r="C301" s="3">
         <v>3000</v>
@@ -11795,8 +11658,9 @@
       <c r="A302" s="3" t="s">
         <v>1207</v>
       </c>
-      <c r="B302" s="3" t="s">
-        <v>1473</v>
+      <c r="B302" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_SaurlapjuVecas</v>
       </c>
       <c r="C302" s="3">
         <v>0</v>
@@ -11817,8 +11681,9 @@
       <c r="A303" s="3" t="s">
         <v>1211</v>
       </c>
-      <c r="B303" s="3" t="s">
-        <v>1473</v>
+      <c r="B303" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_SaurlapjuVecas</v>
       </c>
       <c r="C303" s="3">
         <v>500</v>
@@ -11839,8 +11704,9 @@
       <c r="A304" s="3" t="s">
         <v>1215</v>
       </c>
-      <c r="B304" s="3" t="s">
-        <v>1473</v>
+      <c r="B304" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_SaurlapjuVecas</v>
       </c>
       <c r="C304" s="3">
         <v>1250</v>
@@ -11861,8 +11727,9 @@
       <c r="A305" s="3" t="s">
         <v>1219</v>
       </c>
-      <c r="B305" s="3" t="s">
-        <v>1473</v>
+      <c r="B305" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_SaurlapjuVecas</v>
       </c>
       <c r="C305" s="3">
         <v>3000</v>
@@ -11883,8 +11750,9 @@
       <c r="A306" s="3" t="s">
         <v>1223</v>
       </c>
-      <c r="B306" s="3" t="s">
-        <v>1474</v>
+      <c r="B306" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_SaurlapjuVKraja-sum</v>
       </c>
       <c r="C306" s="3">
         <v>0</v>
@@ -11905,8 +11773,9 @@
       <c r="A307" s="3" t="s">
         <v>1227</v>
       </c>
-      <c r="B307" s="3" t="s">
-        <v>1475</v>
+      <c r="B307" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_Skujkoku</v>
       </c>
       <c r="C307" s="3">
         <v>0</v>
@@ -11927,8 +11796,9 @@
       <c r="A308" s="3" t="s">
         <v>1231</v>
       </c>
-      <c r="B308" s="3" t="s">
-        <v>1475</v>
+      <c r="B308" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_Skujkoku</v>
       </c>
       <c r="C308" s="3">
         <v>1250</v>
@@ -11949,8 +11819,9 @@
       <c r="A309" s="3" t="s">
         <v>1235</v>
       </c>
-      <c r="B309" s="3" t="s">
-        <v>1475</v>
+      <c r="B309" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_Skujkoku</v>
       </c>
       <c r="C309" s="3">
         <v>3000</v>
@@ -11971,8 +11842,9 @@
       <c r="A310" s="3" t="s">
         <v>1239</v>
       </c>
-      <c r="B310" s="3" t="s">
-        <v>1475</v>
+      <c r="B310" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_Skujkoku</v>
       </c>
       <c r="C310" s="3">
         <v>10000</v>
@@ -11993,8 +11865,9 @@
       <c r="A311" s="3" t="s">
         <v>1243</v>
       </c>
-      <c r="B311" s="3" t="s">
-        <v>1476</v>
+      <c r="B311" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_SkujkokuJaunas</v>
       </c>
       <c r="C311" s="3">
         <v>0</v>
@@ -12015,8 +11888,9 @@
       <c r="A312" s="3" t="s">
         <v>1247</v>
       </c>
-      <c r="B312" s="3" t="s">
-        <v>1476</v>
+      <c r="B312" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_SkujkokuJaunas</v>
       </c>
       <c r="C312" s="3">
         <v>500</v>
@@ -12037,8 +11911,9 @@
       <c r="A313" s="3" t="s">
         <v>1251</v>
       </c>
-      <c r="B313" s="3" t="s">
-        <v>1476</v>
+      <c r="B313" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_SkujkokuJaunas</v>
       </c>
       <c r="C313" s="3">
         <v>1250</v>
@@ -12059,8 +11934,9 @@
       <c r="A314" s="3" t="s">
         <v>1255</v>
       </c>
-      <c r="B314" s="3" t="s">
-        <v>1476</v>
+      <c r="B314" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_SkujkokuJaunas</v>
       </c>
       <c r="C314" s="3">
         <v>3000</v>
@@ -12081,8 +11957,9 @@
       <c r="A315" s="3" t="s">
         <v>1259</v>
       </c>
-      <c r="B315" s="3" t="s">
-        <v>1477</v>
+      <c r="B315" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_SkujkokuKraja-sum</v>
       </c>
       <c r="C315" s="3">
         <v>0</v>
@@ -12103,8 +11980,9 @@
       <c r="A316" s="3" t="s">
         <v>1263</v>
       </c>
-      <c r="B316" s="3" t="s">
-        <v>1478</v>
+      <c r="B316" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_SkujkokuVecas</v>
       </c>
       <c r="C316" s="3">
         <v>0</v>
@@ -12125,8 +12003,9 @@
       <c r="A317" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="B317" s="3" t="s">
-        <v>1478</v>
+      <c r="B317" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_SkujkokuVecas</v>
       </c>
       <c r="C317" s="3">
         <v>500</v>
@@ -12147,8 +12026,9 @@
       <c r="A318" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="B318" s="3" t="s">
-        <v>1478</v>
+      <c r="B318" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_SkujkokuVecas</v>
       </c>
       <c r="C318" s="3">
         <v>1250</v>
@@ -12169,8 +12049,9 @@
       <c r="A319" s="3" t="s">
         <v>1275</v>
       </c>
-      <c r="B319" s="3" t="s">
-        <v>1478</v>
+      <c r="B319" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_SkujkokuVecas</v>
       </c>
       <c r="C319" s="3">
         <v>3000</v>
@@ -12191,8 +12072,9 @@
       <c r="A320" s="3" t="s">
         <v>1279</v>
       </c>
-      <c r="B320" s="3" t="s">
-        <v>1479</v>
+      <c r="B320" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_TaucLaiks-vid</v>
       </c>
       <c r="C320" s="3">
         <v>0</v>
@@ -12217,8 +12099,9 @@
       <c r="A321" s="3" t="s">
         <v>1283</v>
       </c>
-      <c r="B321" s="3" t="s">
-        <v>1480</v>
+      <c r="B321" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_ValdosaisDiametrs-max</v>
       </c>
       <c r="C321" s="3">
         <v>0</v>
@@ -12239,8 +12122,9 @@
       <c r="A322" s="3" t="s">
         <v>1287</v>
       </c>
-      <c r="B322" s="3" t="s">
-        <v>1481</v>
+      <c r="B322" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Mezi_VidejasBriestaudzes</v>
       </c>
       <c r="C322" s="3">
         <v>0</v>
@@ -12261,8 +12145,9 @@
       <c r="A323" s="3" t="s">
         <v>1291</v>
       </c>
-      <c r="B323" s="3" t="s">
-        <v>1481</v>
+      <c r="B323" s="3" t="str">
+        <f t="shared" ref="B323:B339" si="5">_xlfn.TEXTBEFORE(A323,"_",2)</f>
+        <v>Mezi_VidejasBriestaudzes</v>
       </c>
       <c r="C323" s="3">
         <v>500</v>
@@ -12287,8 +12172,9 @@
       <c r="A324" s="3" t="s">
         <v>1295</v>
       </c>
-      <c r="B324" s="3" t="s">
-        <v>1481</v>
+      <c r="B324" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Mezi_VidejasBriestaudzes</v>
       </c>
       <c r="C324" s="3">
         <v>1250</v>
@@ -12313,8 +12199,9 @@
       <c r="A325" s="3" t="s">
         <v>1299</v>
       </c>
-      <c r="B325" s="3" t="s">
-        <v>1481</v>
+      <c r="B325" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Mezi_VidejasBriestaudzes</v>
       </c>
       <c r="C325" s="3">
         <v>3000</v>
@@ -12335,8 +12222,9 @@
       <c r="A326" s="3" t="s">
         <v>1303</v>
       </c>
-      <c r="B326" s="3" t="s">
-        <v>1481</v>
+      <c r="B326" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Mezi_VidejasBriestaudzes</v>
       </c>
       <c r="C326" s="3">
         <v>10000</v>
@@ -12357,8 +12245,9 @@
       <c r="A327" s="3" t="s">
         <v>1307</v>
       </c>
-      <c r="B327" s="3" t="s">
-        <v>1482</v>
+      <c r="B327" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Reljefs_Aspect-iqr</v>
       </c>
       <c r="C327" s="3">
         <v>0</v>
@@ -12383,8 +12272,9 @@
       <c r="A328" s="3" t="s">
         <v>1311</v>
       </c>
-      <c r="B328" s="3" t="s">
-        <v>1483</v>
+      <c r="B328" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Reljefs_Aspect-mean</v>
       </c>
       <c r="C328" s="3">
         <v>0</v>
@@ -12409,8 +12299,9 @@
       <c r="A329" s="3" t="s">
         <v>1315</v>
       </c>
-      <c r="B329" s="3" t="s">
-        <v>1484</v>
+      <c r="B329" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Reljefs_DiS-area</v>
       </c>
       <c r="C329" s="3">
         <v>0</v>
@@ -12431,8 +12322,9 @@
       <c r="A330" s="3" t="s">
         <v>1319</v>
       </c>
-      <c r="B330" s="3" t="s">
-        <v>1484</v>
+      <c r="B330" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Reljefs_DiS-area</v>
       </c>
       <c r="C330" s="3">
         <v>500</v>
@@ -12453,8 +12345,9 @@
       <c r="A331" s="3" t="s">
         <v>1323</v>
       </c>
-      <c r="B331" s="3" t="s">
-        <v>1484</v>
+      <c r="B331" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Reljefs_DiS-area</v>
       </c>
       <c r="C331" s="3">
         <v>1250</v>
@@ -12475,8 +12368,9 @@
       <c r="A332" s="3" t="s">
         <v>1327</v>
       </c>
-      <c r="B332" s="3" t="s">
-        <v>1484</v>
+      <c r="B332" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Reljefs_DiS-area</v>
       </c>
       <c r="C332" s="3">
         <v>3000</v>
@@ -12497,8 +12391,9 @@
       <c r="A333" s="3" t="s">
         <v>1331</v>
       </c>
-      <c r="B333" s="3" t="s">
-        <v>1484</v>
+      <c r="B333" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Reljefs_DiS-area</v>
       </c>
       <c r="C333" s="3">
         <v>10000</v>
@@ -12519,8 +12414,9 @@
       <c r="A334" s="3" t="s">
         <v>1335</v>
       </c>
-      <c r="B334" s="3" t="s">
-        <v>1485</v>
+      <c r="B334" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Reljefs_DiS-max</v>
       </c>
       <c r="C334" s="3">
         <v>0</v>
@@ -12541,8 +12437,9 @@
       <c r="A335" s="3" t="s">
         <v>1339</v>
       </c>
-      <c r="B335" s="3" t="s">
-        <v>1486</v>
+      <c r="B335" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Reljefs_DiS-mean</v>
       </c>
       <c r="C335" s="3">
         <v>0</v>
@@ -12563,8 +12460,9 @@
       <c r="A336" s="3" t="s">
         <v>1343</v>
       </c>
-      <c r="B336" s="3" t="s">
-        <v>1487</v>
+      <c r="B336" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Reljefs_Slope-iqr</v>
       </c>
       <c r="C336" s="3">
         <v>0</v>
@@ -12589,8 +12487,9 @@
       <c r="A337" s="3" t="s">
         <v>1347</v>
       </c>
-      <c r="B337" s="3" t="s">
-        <v>1488</v>
+      <c r="B337" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Reljefs_Slope-mean</v>
       </c>
       <c r="C337" s="3">
         <v>0</v>
@@ -12615,8 +12514,9 @@
       <c r="A338" s="3" t="s">
         <v>1351</v>
       </c>
-      <c r="B338" s="3" t="s">
-        <v>1489</v>
+      <c r="B338" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Reljefs_TWI-mean</v>
       </c>
       <c r="C338" s="3">
         <v>0</v>
@@ -12641,8 +12541,9 @@
       <c r="A339" s="3" t="s">
         <v>1355</v>
       </c>
-      <c r="B339" s="3" t="s">
-        <v>1490</v>
+      <c r="B339" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Soils_OrganicCarbon</v>
       </c>
       <c r="C339" s="3">
         <v>0</v>
@@ -12665,16 +12566,16 @@
     </row>
     <row r="340" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="4" t="s">
-        <v>1363</v>
+        <v>1370</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>1359</v>
+        <v>1366</v>
       </c>
       <c r="C340" s="4">
         <v>0</v>
       </c>
       <c r="D340" s="4" t="s">
-        <v>1372</v>
+        <v>1359</v>
       </c>
       <c r="G340" s="6">
         <v>1</v>
@@ -12685,16 +12586,16 @@
     </row>
     <row r="341" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="4" t="s">
-        <v>1364</v>
+        <v>1371</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>1360</v>
+        <v>1367</v>
       </c>
       <c r="C341" s="4">
         <v>0</v>
       </c>
       <c r="D341" s="4" t="s">
-        <v>1373</v>
+        <v>1360</v>
       </c>
       <c r="G341" s="6">
         <v>1</v>
@@ -12705,146 +12606,147 @@
     </row>
     <row r="342" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="4" t="s">
-        <v>1365</v>
+        <v>1372</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>1361</v>
+        <v>1368</v>
       </c>
       <c r="C342" s="4">
         <v>0</v>
       </c>
       <c r="D342" s="4" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G342" s="6">
+        <v>1</v>
+      </c>
+      <c r="H342" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A343" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C343" s="3">
+        <v>0</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E343" s="3"/>
+      <c r="F343" s="3"/>
+      <c r="G343" s="1">
+        <v>1</v>
+      </c>
+      <c r="H343" s="1">
+        <v>1</v>
+      </c>
+      <c r="I343" s="3"/>
+      <c r="J343" s="3"/>
+      <c r="K343" s="3"/>
+      <c r="L343" s="3"/>
+      <c r="M343" s="3"/>
+    </row>
+    <row r="344" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C344" s="3">
+        <v>500</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E344" s="3"/>
+      <c r="F344" s="3"/>
+      <c r="G344" s="1">
+        <v>1</v>
+      </c>
+      <c r="H344" s="1">
+        <v>1</v>
+      </c>
+      <c r="I344" s="3"/>
+      <c r="J344" s="3"/>
+      <c r="K344" s="3"/>
+      <c r="L344" s="3"/>
+      <c r="M344" s="3"/>
+    </row>
+    <row r="345" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C345" s="3">
+        <v>1250</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E345" s="3"/>
+      <c r="F345" s="3"/>
+      <c r="G345" s="1">
+        <v>1</v>
+      </c>
+      <c r="H345" s="1">
+        <v>1</v>
+      </c>
+      <c r="I345" s="3"/>
+      <c r="J345" s="3"/>
+      <c r="K345" s="3"/>
+      <c r="L345" s="3"/>
+      <c r="M345" s="3"/>
+    </row>
+    <row r="346" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C346">
+        <v>500</v>
+      </c>
+      <c r="D346" t="s">
+        <v>1362</v>
+      </c>
+      <c r="G346" s="1">
+        <v>1</v>
+      </c>
+      <c r="H346" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A347" s="3" t="s">
         <v>1374</v>
       </c>
-      <c r="G342" s="6">
-        <v>1</v>
-      </c>
-      <c r="H342" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343" spans="1:13" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A343" s="4" t="s">
+      <c r="B347" t="s">
         <v>1369</v>
       </c>
-      <c r="B343" s="4" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C343" s="4">
-        <v>0</v>
-      </c>
-      <c r="D343" s="4" t="s">
-        <v>1375</v>
-      </c>
-      <c r="E343" s="4"/>
-      <c r="F343" s="4"/>
-      <c r="G343" s="6">
-        <v>1</v>
-      </c>
-      <c r="H343" s="6">
-        <v>1</v>
-      </c>
-      <c r="I343" s="4"/>
-      <c r="J343" s="4"/>
-      <c r="K343" s="4"/>
-      <c r="L343" s="4"/>
-      <c r="M343" s="4"/>
-    </row>
-    <row r="344" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="4" t="s">
-        <v>1370</v>
-      </c>
-      <c r="B344" s="4" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C344" s="4">
-        <v>500</v>
-      </c>
-      <c r="D344" s="4" t="s">
-        <v>1376</v>
-      </c>
-      <c r="E344" s="4"/>
-      <c r="F344" s="4"/>
-      <c r="G344" s="6">
-        <v>1</v>
-      </c>
-      <c r="H344" s="6">
-        <v>1</v>
-      </c>
-      <c r="I344" s="4"/>
-      <c r="J344" s="4"/>
-      <c r="K344" s="4"/>
-      <c r="L344" s="4"/>
-      <c r="M344" s="4"/>
-    </row>
-    <row r="345" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="4" t="s">
-        <v>1371</v>
-      </c>
-      <c r="B345" s="4" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C345" s="4">
+      <c r="C347">
         <v>1250</v>
       </c>
-      <c r="D345" s="4" t="s">
-        <v>1377</v>
-      </c>
-      <c r="E345" s="4"/>
-      <c r="F345" s="4"/>
-      <c r="G345" s="6">
-        <v>1</v>
-      </c>
-      <c r="H345" s="6">
-        <v>1</v>
-      </c>
-      <c r="I345" s="4"/>
-      <c r="J345" s="4"/>
-      <c r="K345" s="4"/>
-      <c r="L345" s="4"/>
-      <c r="M345" s="4"/>
-    </row>
-    <row r="346" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A346" s="4" t="s">
-        <v>1366</v>
-      </c>
-      <c r="B346" s="5" t="s">
+      <c r="D347" t="s">
         <v>1362</v>
       </c>
-      <c r="C346" s="5">
-        <v>500</v>
-      </c>
-      <c r="D346" s="5" t="s">
-        <v>1378</v>
-      </c>
-      <c r="G346" s="6">
-        <v>1</v>
-      </c>
-      <c r="H346" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A347" s="4" t="s">
-        <v>1367</v>
-      </c>
-      <c r="B347" s="5" t="s">
-        <v>1362</v>
-      </c>
-      <c r="C347" s="5">
-        <v>1250</v>
-      </c>
-      <c r="D347" s="5" t="s">
-        <v>1379</v>
-      </c>
-      <c r="G347" s="6">
-        <v>1</v>
-      </c>
-      <c r="H347" s="6">
+      <c r="G347" s="1">
+        <v>1</v>
+      </c>
+      <c r="H347" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A348" s="3"/>
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
     </row>
@@ -15243,6 +15145,10 @@
     <row r="947" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G947" s="1"/>
       <c r="H947" s="1"/>
+    </row>
+    <row r="948" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G948" s="1"/>
+      <c r="H948" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -15253,20 +15159,66 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08BD759-6143-40FC-AFAD-F05882C24CDA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="fd5dee7c-ba60-42c5-972c-0266fa4c6388">
@@ -15282,7 +15234,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100147FB57513909B4BA2EA8B3E2CB0A604" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bdca938fbe7777ceb4019e6e14788255">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="159907c2-825f-4798-be3c-cace777c1bf6" xmlns:ns3="fd5dee7c-ba60-42c5-972c-0266fa4c6388" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aab9818a1ae61a1a36c04142772163c1" ns2:_="" ns3:_="">
     <xsd:import namespace="159907c2-825f-4798-be3c-cace777c1bf6"/>
@@ -15508,66 +15460,23 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C6FE2A2-6ED2-4E2C-A555-D540A804B39A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E4CA95B-D6DD-4F05-90D1-23DC304A07AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F517F43A-7C47-46D8-8189-DAFA529A6189}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -15578,7 +15487,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48F180C9-E5DC-4A8C-B547-17DE0E6EEACB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15595,20 +15504,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C6FE2A2-6ED2-4E2C-A555-D540A804B39A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E4CA95B-D6DD-4F05-90D1-23DC304A07AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>